--- a/개인작업폴더/김형준/LavaStage_Level Design_Ver 1.0.xlsx
+++ b/개인작업폴더/김형준/LavaStage_Level Design_Ver 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DE9FAD-9B8E-4FA7-A54B-7652488C444C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFF62B1-E845-480A-9C07-B2B231FA6E1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="255" windowWidth="23505" windowHeight="20655" activeTab="5" xr2:uid="{C1FA5F5E-F99A-4B50-A544-5AD2CAC92D85}"/>
+    <workbookView xWindow="270" yWindow="345" windowWidth="17625" windowHeight="20655" activeTab="5" xr2:uid="{C1FA5F5E-F99A-4B50-A544-5AD2CAC92D85}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="3" r:id="rId1"/>
@@ -1543,6 +1543,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1560,6 +1584,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1612,6 +1666,9 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1633,85 +1690,28 @@
     <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10827,70 +10827,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>68034</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="화살표: 위쪽/아래쪽 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4840C85B-05FC-43A4-B64F-2ADFD3E9D11B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3184070" y="7034893"/>
-          <a:ext cx="326571" cy="802821"/>
-        </a:xfrm>
-        <a:prstGeom prst="upDownArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -11043,198 +10979,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="화살표: 위쪽/아래쪽 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9501AB-C7A1-43ED-82F7-031A752D043A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4027713" y="7034893"/>
-          <a:ext cx="326571" cy="802821"/>
-        </a:xfrm>
-        <a:prstGeom prst="upDownArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="화살표: 위쪽/아래쪽 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A375D0-1B9B-4D1A-B0ED-9F91099A2F53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20941392" y="7034893"/>
-          <a:ext cx="326571" cy="802821"/>
-        </a:xfrm>
-        <a:prstGeom prst="upDownArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>40819</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="화살표: 위쪽/아래쪽 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B284F7F-439C-435E-8C3B-1C8CA37A515F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20056927" y="7034893"/>
-          <a:ext cx="326571" cy="802821"/>
-        </a:xfrm>
-        <a:prstGeom prst="upDownArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -11556,15 +11300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>156482</xdr:colOff>
+      <xdr:colOff>156481</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>210912</xdr:rowOff>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149683</xdr:rowOff>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11579,8 +11323,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="17934213" y="5442860"/>
-          <a:ext cx="1095378" cy="346981"/>
+          <a:off x="17838964" y="6259286"/>
+          <a:ext cx="1285874" cy="346981"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -11620,15 +11364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11643,7 +11387,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="13266965" y="5402035"/>
+          <a:off x="13294180" y="6463392"/>
           <a:ext cx="966106" cy="312965"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -13092,6 +12836,70 @@
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="화살표: 위쪽/아래쪽 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3773D7C1-ABB1-4B04-BA5C-EF5AFDD28D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14709321" y="11538859"/>
+          <a:ext cx="326572" cy="2939142"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13416,11 +13224,11 @@
   <sheetData>
     <row r="3" spans="2:14" ht="27" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="5" spans="2:14" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
@@ -13430,64 +13238,64 @@
     </row>
     <row r="8" spans="2:14" ht="27" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="10" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13497,157 +13305,157 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="19" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="22" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
     </row>
     <row r="23" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
     </row>
     <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
     </row>
     <row r="27" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
     </row>
     <row r="29" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
     </row>
     <row r="32" spans="2:12" ht="27" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
     </row>
     <row r="33" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
     </row>
     <row r="35" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="2:15" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
@@ -13661,83 +13469,83 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="2:15" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:15" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" spans="2:15" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
     </row>
     <row r="41" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
     </row>
     <row r="42" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
     </row>
     <row r="43" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:15" ht="27" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
     </row>
     <row r="46" spans="2:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="100"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="23" t="s">
         <v>35</v>
       </c>
@@ -13746,11 +13554,11 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="42" t="s">
         <v>36</v>
       </c>
@@ -13759,24 +13567,24 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="97"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
       <c r="E49" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="101" t="s">
+      <c r="F49" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="97"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
       <c r="E50" s="21" t="s">
         <v>62</v>
       </c>
@@ -13785,19 +13593,19 @@
       </c>
     </row>
     <row r="51" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
     </row>
     <row r="52" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
     </row>
     <row r="53" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
     </row>
     <row r="54" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13899,54 +13707,54 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
       <c r="W3" s="32" t="s">
         <v>40</v>
       </c>
@@ -14205,54 +14013,54 @@
       <c r="U14" s="33"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
@@ -14508,54 +14316,54 @@
       <c r="U27" s="33"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
     </row>
     <row r="29" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
     </row>
     <row r="30" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
@@ -14811,54 +14619,54 @@
       <c r="U40" s="33"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="86"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="86"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
@@ -15114,54 +14922,54 @@
       <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="86"/>
-      <c r="T54" s="86"/>
-      <c r="U54" s="86"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33"/>
@@ -16413,55 +16221,55 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
-      <c r="AH2" s="58" t="s">
+      <c r="AH2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AW2" s="66" t="s">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AW2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="60" t="s">
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="61"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="79"/>
     </row>
     <row r="3" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
@@ -16507,49 +16315,49 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="16"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="63"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80"/>
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80"/>
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="80"/>
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="81"/>
     </row>
     <row r="4" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
@@ -16583,49 +16391,49 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="16"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="62"/>
-      <c r="BQ4" s="62"/>
-      <c r="BR4" s="62"/>
-      <c r="BS4" s="62"/>
-      <c r="BT4" s="62"/>
-      <c r="BU4" s="62"/>
-      <c r="BV4" s="62"/>
-      <c r="BW4" s="62"/>
-      <c r="BX4" s="62"/>
-      <c r="BY4" s="63"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="80"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
+      <c r="BW4" s="80"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="81"/>
     </row>
     <row r="5" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
@@ -16678,49 +16486,49 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="16"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="62"/>
-      <c r="BX5" s="62"/>
-      <c r="BY5" s="63"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="80"/>
+      <c r="BN5" s="80"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="80"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="81"/>
     </row>
     <row r="6" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
@@ -16754,49 +16562,49 @@
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="20"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64"/>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="65"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="82"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="82"/>
+      <c r="BK6" s="82"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="BR6" s="82"/>
+      <c r="BS6" s="82"/>
+      <c r="BT6" s="82"/>
+      <c r="BU6" s="82"/>
+      <c r="BV6" s="82"/>
+      <c r="BW6" s="82"/>
+      <c r="BX6" s="82"/>
+      <c r="BY6" s="83"/>
     </row>
     <row r="11" spans="2:77" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O11" s="25"/>
@@ -17014,43 +16822,43 @@
       <c r="F35" s="25"/>
       <c r="V35" s="25"/>
       <c r="W35" s="25"/>
-      <c r="BA35" s="90">
+      <c r="BA35" s="93">
         <v>2</v>
       </c>
-      <c r="BB35" s="90"/>
-      <c r="BC35" s="90"/>
-      <c r="BD35" s="90"/>
-      <c r="BE35" s="90"/>
-      <c r="BF35" s="90"/>
-      <c r="BG35" s="90"/>
-      <c r="BH35" s="90"/>
-      <c r="BI35" s="90"/>
-      <c r="BJ35" s="90"/>
-      <c r="BK35" s="90"/>
-      <c r="BL35" s="90"/>
-      <c r="BM35" s="90"/>
-      <c r="BN35" s="90"/>
-      <c r="BO35" s="90"/>
-      <c r="BP35" s="90"/>
-      <c r="BQ35" s="90"/>
-      <c r="BR35" s="90"/>
-      <c r="BS35" s="90"/>
-      <c r="BT35" s="90"/>
-      <c r="BU35" s="90"/>
-      <c r="BV35" s="90"/>
-      <c r="BW35" s="90"/>
-      <c r="BX35" s="90"/>
-      <c r="BY35" s="90"/>
-      <c r="BZ35" s="90"/>
-      <c r="CA35" s="90"/>
-      <c r="CB35" s="90"/>
-      <c r="CC35" s="90"/>
-      <c r="CD35" s="90"/>
-      <c r="CE35" s="90"/>
-      <c r="CF35" s="90"/>
-      <c r="CG35" s="90"/>
-      <c r="CH35" s="90"/>
-      <c r="CI35" s="90"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="93"/>
+      <c r="BH35" s="93"/>
+      <c r="BI35" s="93"/>
+      <c r="BJ35" s="93"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="93"/>
+      <c r="BO35" s="93"/>
+      <c r="BP35" s="93"/>
+      <c r="BQ35" s="93"/>
+      <c r="BR35" s="93"/>
+      <c r="BS35" s="93"/>
+      <c r="BT35" s="93"/>
+      <c r="BU35" s="93"/>
+      <c r="BV35" s="93"/>
+      <c r="BW35" s="93"/>
+      <c r="BX35" s="93"/>
+      <c r="BY35" s="93"/>
+      <c r="BZ35" s="93"/>
+      <c r="CA35" s="93"/>
+      <c r="CB35" s="93"/>
+      <c r="CC35" s="93"/>
+      <c r="CD35" s="93"/>
+      <c r="CE35" s="93"/>
+      <c r="CF35" s="93"/>
+      <c r="CG35" s="93"/>
+      <c r="CH35" s="93"/>
+      <c r="CI35" s="93"/>
     </row>
     <row r="36" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="25"/>
@@ -17221,49 +17029,49 @@
       <c r="W47" s="25"/>
       <c r="AV47" s="25"/>
       <c r="AW47" s="25"/>
-      <c r="AX47" s="74">
+      <c r="AX47" s="92">
         <v>1</v>
       </c>
-      <c r="AY47" s="74"/>
-      <c r="AZ47" s="74"/>
-      <c r="BA47" s="74"/>
-      <c r="BB47" s="74"/>
-      <c r="BC47" s="74"/>
-      <c r="BD47" s="74"/>
-      <c r="BE47" s="74"/>
-      <c r="BF47" s="74"/>
-      <c r="BG47" s="74"/>
-      <c r="BH47" s="74"/>
-      <c r="BI47" s="74"/>
-      <c r="BJ47" s="74"/>
-      <c r="BK47" s="74"/>
-      <c r="BL47" s="74"/>
-      <c r="BM47" s="74"/>
-      <c r="BN47" s="74"/>
-      <c r="BO47" s="74"/>
-      <c r="BP47" s="74"/>
-      <c r="BQ47" s="74"/>
-      <c r="BR47" s="74"/>
-      <c r="BS47" s="74"/>
-      <c r="BT47" s="74"/>
-      <c r="BU47" s="74"/>
-      <c r="BV47" s="74"/>
-      <c r="BW47" s="74"/>
-      <c r="BX47" s="74"/>
-      <c r="BY47" s="74"/>
-      <c r="BZ47" s="74"/>
-      <c r="CA47" s="74"/>
-      <c r="CB47" s="74"/>
-      <c r="CC47" s="74"/>
-      <c r="CD47" s="74"/>
-      <c r="CE47" s="74"/>
-      <c r="CF47" s="74"/>
-      <c r="CG47" s="74"/>
-      <c r="CH47" s="74"/>
-      <c r="CI47" s="74"/>
-      <c r="CJ47" s="74"/>
-      <c r="CK47" s="74"/>
-      <c r="CL47" s="74"/>
+      <c r="AY47" s="92"/>
+      <c r="AZ47" s="92"/>
+      <c r="BA47" s="92"/>
+      <c r="BB47" s="92"/>
+      <c r="BC47" s="92"/>
+      <c r="BD47" s="92"/>
+      <c r="BE47" s="92"/>
+      <c r="BF47" s="92"/>
+      <c r="BG47" s="92"/>
+      <c r="BH47" s="92"/>
+      <c r="BI47" s="92"/>
+      <c r="BJ47" s="92"/>
+      <c r="BK47" s="92"/>
+      <c r="BL47" s="92"/>
+      <c r="BM47" s="92"/>
+      <c r="BN47" s="92"/>
+      <c r="BO47" s="92"/>
+      <c r="BP47" s="92"/>
+      <c r="BQ47" s="92"/>
+      <c r="BR47" s="92"/>
+      <c r="BS47" s="92"/>
+      <c r="BT47" s="92"/>
+      <c r="BU47" s="92"/>
+      <c r="BV47" s="92"/>
+      <c r="BW47" s="92"/>
+      <c r="BX47" s="92"/>
+      <c r="BY47" s="92"/>
+      <c r="BZ47" s="92"/>
+      <c r="CA47" s="92"/>
+      <c r="CB47" s="92"/>
+      <c r="CC47" s="92"/>
+      <c r="CD47" s="92"/>
+      <c r="CE47" s="92"/>
+      <c r="CF47" s="92"/>
+      <c r="CG47" s="92"/>
+      <c r="CH47" s="92"/>
+      <c r="CI47" s="92"/>
+      <c r="CJ47" s="92"/>
+      <c r="CK47" s="92"/>
+      <c r="CL47" s="92"/>
       <c r="CM47" s="25"/>
       <c r="CN47" s="25"/>
       <c r="CO47" s="25"/>
@@ -17284,47 +17092,47 @@
       <c r="AN48" s="25"/>
       <c r="AV48" s="25"/>
       <c r="AW48" s="25"/>
-      <c r="AX48" s="74"/>
-      <c r="AY48" s="74"/>
-      <c r="AZ48" s="74"/>
-      <c r="BA48" s="74"/>
-      <c r="BB48" s="74"/>
-      <c r="BC48" s="74"/>
-      <c r="BD48" s="74"/>
-      <c r="BE48" s="74"/>
-      <c r="BF48" s="74"/>
-      <c r="BG48" s="74"/>
-      <c r="BH48" s="74"/>
-      <c r="BI48" s="74"/>
-      <c r="BJ48" s="74"/>
-      <c r="BK48" s="74"/>
-      <c r="BL48" s="74"/>
-      <c r="BM48" s="74"/>
-      <c r="BN48" s="74"/>
-      <c r="BO48" s="74"/>
-      <c r="BP48" s="74"/>
-      <c r="BQ48" s="74"/>
-      <c r="BR48" s="74"/>
-      <c r="BS48" s="74"/>
-      <c r="BT48" s="74"/>
-      <c r="BU48" s="74"/>
-      <c r="BV48" s="74"/>
-      <c r="BW48" s="74"/>
-      <c r="BX48" s="74"/>
-      <c r="BY48" s="74"/>
-      <c r="BZ48" s="74"/>
-      <c r="CA48" s="74"/>
-      <c r="CB48" s="74"/>
-      <c r="CC48" s="74"/>
-      <c r="CD48" s="74"/>
-      <c r="CE48" s="74"/>
-      <c r="CF48" s="74"/>
-      <c r="CG48" s="74"/>
-      <c r="CH48" s="74"/>
-      <c r="CI48" s="74"/>
-      <c r="CJ48" s="74"/>
-      <c r="CK48" s="74"/>
-      <c r="CL48" s="74"/>
+      <c r="AX48" s="92"/>
+      <c r="AY48" s="92"/>
+      <c r="AZ48" s="92"/>
+      <c r="BA48" s="92"/>
+      <c r="BB48" s="92"/>
+      <c r="BC48" s="92"/>
+      <c r="BD48" s="92"/>
+      <c r="BE48" s="92"/>
+      <c r="BF48" s="92"/>
+      <c r="BG48" s="92"/>
+      <c r="BH48" s="92"/>
+      <c r="BI48" s="92"/>
+      <c r="BJ48" s="92"/>
+      <c r="BK48" s="92"/>
+      <c r="BL48" s="92"/>
+      <c r="BM48" s="92"/>
+      <c r="BN48" s="92"/>
+      <c r="BO48" s="92"/>
+      <c r="BP48" s="92"/>
+      <c r="BQ48" s="92"/>
+      <c r="BR48" s="92"/>
+      <c r="BS48" s="92"/>
+      <c r="BT48" s="92"/>
+      <c r="BU48" s="92"/>
+      <c r="BV48" s="92"/>
+      <c r="BW48" s="92"/>
+      <c r="BX48" s="92"/>
+      <c r="BY48" s="92"/>
+      <c r="BZ48" s="92"/>
+      <c r="CA48" s="92"/>
+      <c r="CB48" s="92"/>
+      <c r="CC48" s="92"/>
+      <c r="CD48" s="92"/>
+      <c r="CE48" s="92"/>
+      <c r="CF48" s="92"/>
+      <c r="CG48" s="92"/>
+      <c r="CH48" s="92"/>
+      <c r="CI48" s="92"/>
+      <c r="CJ48" s="92"/>
+      <c r="CK48" s="92"/>
+      <c r="CL48" s="92"/>
       <c r="CM48" s="25"/>
       <c r="CN48" s="25"/>
       <c r="CO48" s="25"/>
@@ -17337,47 +17145,47 @@
       <c r="W49" s="25"/>
       <c r="AV49" s="25"/>
       <c r="AW49" s="25"/>
-      <c r="AX49" s="74"/>
-      <c r="AY49" s="74"/>
-      <c r="AZ49" s="74"/>
-      <c r="BA49" s="74"/>
-      <c r="BB49" s="74"/>
-      <c r="BC49" s="74"/>
-      <c r="BD49" s="74"/>
-      <c r="BE49" s="74"/>
-      <c r="BF49" s="74"/>
-      <c r="BG49" s="74"/>
-      <c r="BH49" s="74"/>
-      <c r="BI49" s="74"/>
-      <c r="BJ49" s="74"/>
-      <c r="BK49" s="74"/>
-      <c r="BL49" s="74"/>
-      <c r="BM49" s="74"/>
-      <c r="BN49" s="74"/>
-      <c r="BO49" s="74"/>
-      <c r="BP49" s="74"/>
-      <c r="BQ49" s="74"/>
-      <c r="BR49" s="74"/>
-      <c r="BS49" s="74"/>
-      <c r="BT49" s="74"/>
-      <c r="BU49" s="74"/>
-      <c r="BV49" s="74"/>
-      <c r="BW49" s="74"/>
-      <c r="BX49" s="74"/>
-      <c r="BY49" s="74"/>
-      <c r="BZ49" s="74"/>
-      <c r="CA49" s="74"/>
-      <c r="CB49" s="74"/>
-      <c r="CC49" s="74"/>
-      <c r="CD49" s="74"/>
-      <c r="CE49" s="74"/>
-      <c r="CF49" s="74"/>
-      <c r="CG49" s="74"/>
-      <c r="CH49" s="74"/>
-      <c r="CI49" s="74"/>
-      <c r="CJ49" s="74"/>
-      <c r="CK49" s="74"/>
-      <c r="CL49" s="74"/>
+      <c r="AX49" s="92"/>
+      <c r="AY49" s="92"/>
+      <c r="AZ49" s="92"/>
+      <c r="BA49" s="92"/>
+      <c r="BB49" s="92"/>
+      <c r="BC49" s="92"/>
+      <c r="BD49" s="92"/>
+      <c r="BE49" s="92"/>
+      <c r="BF49" s="92"/>
+      <c r="BG49" s="92"/>
+      <c r="BH49" s="92"/>
+      <c r="BI49" s="92"/>
+      <c r="BJ49" s="92"/>
+      <c r="BK49" s="92"/>
+      <c r="BL49" s="92"/>
+      <c r="BM49" s="92"/>
+      <c r="BN49" s="92"/>
+      <c r="BO49" s="92"/>
+      <c r="BP49" s="92"/>
+      <c r="BQ49" s="92"/>
+      <c r="BR49" s="92"/>
+      <c r="BS49" s="92"/>
+      <c r="BT49" s="92"/>
+      <c r="BU49" s="92"/>
+      <c r="BV49" s="92"/>
+      <c r="BW49" s="92"/>
+      <c r="BX49" s="92"/>
+      <c r="BY49" s="92"/>
+      <c r="BZ49" s="92"/>
+      <c r="CA49" s="92"/>
+      <c r="CB49" s="92"/>
+      <c r="CC49" s="92"/>
+      <c r="CD49" s="92"/>
+      <c r="CE49" s="92"/>
+      <c r="CF49" s="92"/>
+      <c r="CG49" s="92"/>
+      <c r="CH49" s="92"/>
+      <c r="CI49" s="92"/>
+      <c r="CJ49" s="92"/>
+      <c r="CK49" s="92"/>
+      <c r="CL49" s="92"/>
       <c r="CM49" s="25"/>
       <c r="CN49" s="25"/>
       <c r="CO49" s="25"/>
@@ -17392,47 +17200,47 @@
       <c r="W50" s="25"/>
       <c r="AV50" s="25"/>
       <c r="AW50" s="25"/>
-      <c r="AX50" s="74"/>
-      <c r="AY50" s="74"/>
-      <c r="AZ50" s="74"/>
-      <c r="BA50" s="74"/>
-      <c r="BB50" s="74"/>
-      <c r="BC50" s="74"/>
-      <c r="BD50" s="74"/>
-      <c r="BE50" s="74"/>
-      <c r="BF50" s="74"/>
-      <c r="BG50" s="74"/>
-      <c r="BH50" s="74"/>
-      <c r="BI50" s="74"/>
-      <c r="BJ50" s="74"/>
-      <c r="BK50" s="74"/>
-      <c r="BL50" s="74"/>
-      <c r="BM50" s="74"/>
-      <c r="BN50" s="74"/>
-      <c r="BO50" s="74"/>
-      <c r="BP50" s="74"/>
-      <c r="BQ50" s="74"/>
-      <c r="BR50" s="74"/>
-      <c r="BS50" s="74"/>
-      <c r="BT50" s="74"/>
-      <c r="BU50" s="74"/>
-      <c r="BV50" s="74"/>
-      <c r="BW50" s="74"/>
-      <c r="BX50" s="74"/>
-      <c r="BY50" s="74"/>
-      <c r="BZ50" s="74"/>
-      <c r="CA50" s="74"/>
-      <c r="CB50" s="74"/>
-      <c r="CC50" s="74"/>
-      <c r="CD50" s="74"/>
-      <c r="CE50" s="74"/>
-      <c r="CF50" s="74"/>
-      <c r="CG50" s="74"/>
-      <c r="CH50" s="74"/>
-      <c r="CI50" s="74"/>
-      <c r="CJ50" s="74"/>
-      <c r="CK50" s="74"/>
-      <c r="CL50" s="74"/>
+      <c r="AX50" s="92"/>
+      <c r="AY50" s="92"/>
+      <c r="AZ50" s="92"/>
+      <c r="BA50" s="92"/>
+      <c r="BB50" s="92"/>
+      <c r="BC50" s="92"/>
+      <c r="BD50" s="92"/>
+      <c r="BE50" s="92"/>
+      <c r="BF50" s="92"/>
+      <c r="BG50" s="92"/>
+      <c r="BH50" s="92"/>
+      <c r="BI50" s="92"/>
+      <c r="BJ50" s="92"/>
+      <c r="BK50" s="92"/>
+      <c r="BL50" s="92"/>
+      <c r="BM50" s="92"/>
+      <c r="BN50" s="92"/>
+      <c r="BO50" s="92"/>
+      <c r="BP50" s="92"/>
+      <c r="BQ50" s="92"/>
+      <c r="BR50" s="92"/>
+      <c r="BS50" s="92"/>
+      <c r="BT50" s="92"/>
+      <c r="BU50" s="92"/>
+      <c r="BV50" s="92"/>
+      <c r="BW50" s="92"/>
+      <c r="BX50" s="92"/>
+      <c r="BY50" s="92"/>
+      <c r="BZ50" s="92"/>
+      <c r="CA50" s="92"/>
+      <c r="CB50" s="92"/>
+      <c r="CC50" s="92"/>
+      <c r="CD50" s="92"/>
+      <c r="CE50" s="92"/>
+      <c r="CF50" s="92"/>
+      <c r="CG50" s="92"/>
+      <c r="CH50" s="92"/>
+      <c r="CI50" s="92"/>
+      <c r="CJ50" s="92"/>
+      <c r="CK50" s="92"/>
+      <c r="CL50" s="92"/>
       <c r="CM50" s="25"/>
       <c r="CN50" s="25"/>
       <c r="CO50" s="25"/>
@@ -17460,47 +17268,47 @@
       <c r="AG51" s="25"/>
       <c r="AV51" s="25"/>
       <c r="AW51" s="25"/>
-      <c r="AX51" s="74"/>
-      <c r="AY51" s="74"/>
-      <c r="AZ51" s="74"/>
-      <c r="BA51" s="74"/>
-      <c r="BB51" s="74"/>
-      <c r="BC51" s="74"/>
-      <c r="BD51" s="74"/>
-      <c r="BE51" s="74"/>
-      <c r="BF51" s="74"/>
-      <c r="BG51" s="74"/>
-      <c r="BH51" s="74"/>
-      <c r="BI51" s="74"/>
-      <c r="BJ51" s="74"/>
-      <c r="BK51" s="74"/>
-      <c r="BL51" s="74"/>
-      <c r="BM51" s="74"/>
-      <c r="BN51" s="74"/>
-      <c r="BO51" s="74"/>
-      <c r="BP51" s="74"/>
-      <c r="BQ51" s="74"/>
-      <c r="BR51" s="74"/>
-      <c r="BS51" s="74"/>
-      <c r="BT51" s="74"/>
-      <c r="BU51" s="74"/>
-      <c r="BV51" s="74"/>
-      <c r="BW51" s="74"/>
-      <c r="BX51" s="74"/>
-      <c r="BY51" s="74"/>
-      <c r="BZ51" s="74"/>
-      <c r="CA51" s="74"/>
-      <c r="CB51" s="74"/>
-      <c r="CC51" s="74"/>
-      <c r="CD51" s="74"/>
-      <c r="CE51" s="74"/>
-      <c r="CF51" s="74"/>
-      <c r="CG51" s="74"/>
-      <c r="CH51" s="74"/>
-      <c r="CI51" s="74"/>
-      <c r="CJ51" s="74"/>
-      <c r="CK51" s="74"/>
-      <c r="CL51" s="74"/>
+      <c r="AX51" s="92"/>
+      <c r="AY51" s="92"/>
+      <c r="AZ51" s="92"/>
+      <c r="BA51" s="92"/>
+      <c r="BB51" s="92"/>
+      <c r="BC51" s="92"/>
+      <c r="BD51" s="92"/>
+      <c r="BE51" s="92"/>
+      <c r="BF51" s="92"/>
+      <c r="BG51" s="92"/>
+      <c r="BH51" s="92"/>
+      <c r="BI51" s="92"/>
+      <c r="BJ51" s="92"/>
+      <c r="BK51" s="92"/>
+      <c r="BL51" s="92"/>
+      <c r="BM51" s="92"/>
+      <c r="BN51" s="92"/>
+      <c r="BO51" s="92"/>
+      <c r="BP51" s="92"/>
+      <c r="BQ51" s="92"/>
+      <c r="BR51" s="92"/>
+      <c r="BS51" s="92"/>
+      <c r="BT51" s="92"/>
+      <c r="BU51" s="92"/>
+      <c r="BV51" s="92"/>
+      <c r="BW51" s="92"/>
+      <c r="BX51" s="92"/>
+      <c r="BY51" s="92"/>
+      <c r="BZ51" s="92"/>
+      <c r="CA51" s="92"/>
+      <c r="CB51" s="92"/>
+      <c r="CC51" s="92"/>
+      <c r="CD51" s="92"/>
+      <c r="CE51" s="92"/>
+      <c r="CF51" s="92"/>
+      <c r="CG51" s="92"/>
+      <c r="CH51" s="92"/>
+      <c r="CI51" s="92"/>
+      <c r="CJ51" s="92"/>
+      <c r="CK51" s="92"/>
+      <c r="CL51" s="92"/>
       <c r="CM51" s="25"/>
       <c r="CN51" s="25"/>
       <c r="CO51" s="25"/>
@@ -17523,47 +17331,47 @@
       <c r="AG52" s="25"/>
       <c r="AV52" s="25"/>
       <c r="AW52" s="25"/>
-      <c r="AX52" s="74"/>
-      <c r="AY52" s="74"/>
-      <c r="AZ52" s="74"/>
-      <c r="BA52" s="74"/>
-      <c r="BB52" s="74"/>
-      <c r="BC52" s="74"/>
-      <c r="BD52" s="74"/>
-      <c r="BE52" s="74"/>
-      <c r="BF52" s="74"/>
-      <c r="BG52" s="74"/>
-      <c r="BH52" s="74"/>
-      <c r="BI52" s="74"/>
-      <c r="BJ52" s="74"/>
-      <c r="BK52" s="74"/>
-      <c r="BL52" s="74"/>
-      <c r="BM52" s="74"/>
-      <c r="BN52" s="74"/>
-      <c r="BO52" s="74"/>
-      <c r="BP52" s="74"/>
-      <c r="BQ52" s="74"/>
-      <c r="BR52" s="74"/>
-      <c r="BS52" s="74"/>
-      <c r="BT52" s="74"/>
-      <c r="BU52" s="74"/>
-      <c r="BV52" s="74"/>
-      <c r="BW52" s="74"/>
-      <c r="BX52" s="74"/>
-      <c r="BY52" s="74"/>
-      <c r="BZ52" s="74"/>
-      <c r="CA52" s="74"/>
-      <c r="CB52" s="74"/>
-      <c r="CC52" s="74"/>
-      <c r="CD52" s="74"/>
-      <c r="CE52" s="74"/>
-      <c r="CF52" s="74"/>
-      <c r="CG52" s="74"/>
-      <c r="CH52" s="74"/>
-      <c r="CI52" s="74"/>
-      <c r="CJ52" s="74"/>
-      <c r="CK52" s="74"/>
-      <c r="CL52" s="74"/>
+      <c r="AX52" s="92"/>
+      <c r="AY52" s="92"/>
+      <c r="AZ52" s="92"/>
+      <c r="BA52" s="92"/>
+      <c r="BB52" s="92"/>
+      <c r="BC52" s="92"/>
+      <c r="BD52" s="92"/>
+      <c r="BE52" s="92"/>
+      <c r="BF52" s="92"/>
+      <c r="BG52" s="92"/>
+      <c r="BH52" s="92"/>
+      <c r="BI52" s="92"/>
+      <c r="BJ52" s="92"/>
+      <c r="BK52" s="92"/>
+      <c r="BL52" s="92"/>
+      <c r="BM52" s="92"/>
+      <c r="BN52" s="92"/>
+      <c r="BO52" s="92"/>
+      <c r="BP52" s="92"/>
+      <c r="BQ52" s="92"/>
+      <c r="BR52" s="92"/>
+      <c r="BS52" s="92"/>
+      <c r="BT52" s="92"/>
+      <c r="BU52" s="92"/>
+      <c r="BV52" s="92"/>
+      <c r="BW52" s="92"/>
+      <c r="BX52" s="92"/>
+      <c r="BY52" s="92"/>
+      <c r="BZ52" s="92"/>
+      <c r="CA52" s="92"/>
+      <c r="CB52" s="92"/>
+      <c r="CC52" s="92"/>
+      <c r="CD52" s="92"/>
+      <c r="CE52" s="92"/>
+      <c r="CF52" s="92"/>
+      <c r="CG52" s="92"/>
+      <c r="CH52" s="92"/>
+      <c r="CI52" s="92"/>
+      <c r="CJ52" s="92"/>
+      <c r="CK52" s="92"/>
+      <c r="CL52" s="92"/>
       <c r="CM52" s="25"/>
       <c r="CN52" s="25"/>
       <c r="CO52" s="25"/>
@@ -17576,47 +17384,47 @@
       <c r="W53" s="25"/>
       <c r="AV53" s="25"/>
       <c r="AW53" s="25"/>
-      <c r="AX53" s="74"/>
-      <c r="AY53" s="74"/>
-      <c r="AZ53" s="74"/>
-      <c r="BA53" s="74"/>
-      <c r="BB53" s="74"/>
-      <c r="BC53" s="74"/>
-      <c r="BD53" s="74"/>
-      <c r="BE53" s="74"/>
-      <c r="BF53" s="74"/>
-      <c r="BG53" s="74"/>
-      <c r="BH53" s="74"/>
-      <c r="BI53" s="74"/>
-      <c r="BJ53" s="74"/>
-      <c r="BK53" s="74"/>
-      <c r="BL53" s="74"/>
-      <c r="BM53" s="74"/>
-      <c r="BN53" s="74"/>
-      <c r="BO53" s="74"/>
-      <c r="BP53" s="74"/>
-      <c r="BQ53" s="74"/>
-      <c r="BR53" s="74"/>
-      <c r="BS53" s="74"/>
-      <c r="BT53" s="74"/>
-      <c r="BU53" s="74"/>
-      <c r="BV53" s="74"/>
-      <c r="BW53" s="74"/>
-      <c r="BX53" s="74"/>
-      <c r="BY53" s="74"/>
-      <c r="BZ53" s="74"/>
-      <c r="CA53" s="74"/>
-      <c r="CB53" s="74"/>
-      <c r="CC53" s="74"/>
-      <c r="CD53" s="74"/>
-      <c r="CE53" s="74"/>
-      <c r="CF53" s="74"/>
-      <c r="CG53" s="74"/>
-      <c r="CH53" s="74"/>
-      <c r="CI53" s="74"/>
-      <c r="CJ53" s="74"/>
-      <c r="CK53" s="74"/>
-      <c r="CL53" s="74"/>
+      <c r="AX53" s="92"/>
+      <c r="AY53" s="92"/>
+      <c r="AZ53" s="92"/>
+      <c r="BA53" s="92"/>
+      <c r="BB53" s="92"/>
+      <c r="BC53" s="92"/>
+      <c r="BD53" s="92"/>
+      <c r="BE53" s="92"/>
+      <c r="BF53" s="92"/>
+      <c r="BG53" s="92"/>
+      <c r="BH53" s="92"/>
+      <c r="BI53" s="92"/>
+      <c r="BJ53" s="92"/>
+      <c r="BK53" s="92"/>
+      <c r="BL53" s="92"/>
+      <c r="BM53" s="92"/>
+      <c r="BN53" s="92"/>
+      <c r="BO53" s="92"/>
+      <c r="BP53" s="92"/>
+      <c r="BQ53" s="92"/>
+      <c r="BR53" s="92"/>
+      <c r="BS53" s="92"/>
+      <c r="BT53" s="92"/>
+      <c r="BU53" s="92"/>
+      <c r="BV53" s="92"/>
+      <c r="BW53" s="92"/>
+      <c r="BX53" s="92"/>
+      <c r="BY53" s="92"/>
+      <c r="BZ53" s="92"/>
+      <c r="CA53" s="92"/>
+      <c r="CB53" s="92"/>
+      <c r="CC53" s="92"/>
+      <c r="CD53" s="92"/>
+      <c r="CE53" s="92"/>
+      <c r="CF53" s="92"/>
+      <c r="CG53" s="92"/>
+      <c r="CH53" s="92"/>
+      <c r="CI53" s="92"/>
+      <c r="CJ53" s="92"/>
+      <c r="CK53" s="92"/>
+      <c r="CL53" s="92"/>
       <c r="CM53" s="25"/>
       <c r="CN53" s="25"/>
       <c r="CO53" s="25"/>
@@ -17625,68 +17433,68 @@
     <row r="54" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="72">
+      <c r="G54" s="90">
         <v>1</v>
       </c>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
       <c r="AV54" s="25"/>
       <c r="AW54" s="25"/>
-      <c r="AX54" s="74"/>
-      <c r="AY54" s="74"/>
-      <c r="AZ54" s="74"/>
-      <c r="BA54" s="74"/>
-      <c r="BB54" s="74"/>
-      <c r="BC54" s="74"/>
-      <c r="BD54" s="74"/>
-      <c r="BE54" s="74"/>
-      <c r="BF54" s="74"/>
-      <c r="BG54" s="74"/>
-      <c r="BH54" s="74"/>
-      <c r="BI54" s="74"/>
-      <c r="BJ54" s="74"/>
-      <c r="BK54" s="74"/>
-      <c r="BL54" s="74"/>
-      <c r="BM54" s="74"/>
-      <c r="BN54" s="74"/>
-      <c r="BO54" s="74"/>
-      <c r="BP54" s="74"/>
-      <c r="BQ54" s="74"/>
-      <c r="BR54" s="74"/>
-      <c r="BS54" s="74"/>
-      <c r="BT54" s="74"/>
-      <c r="BU54" s="74"/>
-      <c r="BV54" s="74"/>
-      <c r="BW54" s="74"/>
-      <c r="BX54" s="74"/>
-      <c r="BY54" s="74"/>
-      <c r="BZ54" s="74"/>
-      <c r="CA54" s="74"/>
-      <c r="CB54" s="74"/>
-      <c r="CC54" s="74"/>
-      <c r="CD54" s="74"/>
-      <c r="CE54" s="74"/>
-      <c r="CF54" s="74"/>
-      <c r="CG54" s="74"/>
-      <c r="CH54" s="74"/>
-      <c r="CI54" s="74"/>
-      <c r="CJ54" s="74"/>
-      <c r="CK54" s="74"/>
-      <c r="CL54" s="74"/>
+      <c r="AX54" s="92"/>
+      <c r="AY54" s="92"/>
+      <c r="AZ54" s="92"/>
+      <c r="BA54" s="92"/>
+      <c r="BB54" s="92"/>
+      <c r="BC54" s="92"/>
+      <c r="BD54" s="92"/>
+      <c r="BE54" s="92"/>
+      <c r="BF54" s="92"/>
+      <c r="BG54" s="92"/>
+      <c r="BH54" s="92"/>
+      <c r="BI54" s="92"/>
+      <c r="BJ54" s="92"/>
+      <c r="BK54" s="92"/>
+      <c r="BL54" s="92"/>
+      <c r="BM54" s="92"/>
+      <c r="BN54" s="92"/>
+      <c r="BO54" s="92"/>
+      <c r="BP54" s="92"/>
+      <c r="BQ54" s="92"/>
+      <c r="BR54" s="92"/>
+      <c r="BS54" s="92"/>
+      <c r="BT54" s="92"/>
+      <c r="BU54" s="92"/>
+      <c r="BV54" s="92"/>
+      <c r="BW54" s="92"/>
+      <c r="BX54" s="92"/>
+      <c r="BY54" s="92"/>
+      <c r="BZ54" s="92"/>
+      <c r="CA54" s="92"/>
+      <c r="CB54" s="92"/>
+      <c r="CC54" s="92"/>
+      <c r="CD54" s="92"/>
+      <c r="CE54" s="92"/>
+      <c r="CF54" s="92"/>
+      <c r="CG54" s="92"/>
+      <c r="CH54" s="92"/>
+      <c r="CI54" s="92"/>
+      <c r="CJ54" s="92"/>
+      <c r="CK54" s="92"/>
+      <c r="CL54" s="92"/>
       <c r="CM54" s="25"/>
       <c r="CN54" s="25"/>
       <c r="CO54" s="25"/>
@@ -17695,21 +17503,21 @@
     <row r="55" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
       <c r="AI55" s="25"/>
@@ -17727,47 +17535,47 @@
       <c r="AU55" s="25"/>
       <c r="AV55" s="25"/>
       <c r="AW55" s="25"/>
-      <c r="AX55" s="74"/>
-      <c r="AY55" s="74"/>
-      <c r="AZ55" s="74"/>
-      <c r="BA55" s="74"/>
-      <c r="BB55" s="74"/>
-      <c r="BC55" s="74"/>
-      <c r="BD55" s="74"/>
-      <c r="BE55" s="74"/>
-      <c r="BF55" s="74"/>
-      <c r="BG55" s="74"/>
-      <c r="BH55" s="74"/>
-      <c r="BI55" s="74"/>
-      <c r="BJ55" s="74"/>
-      <c r="BK55" s="74"/>
-      <c r="BL55" s="74"/>
-      <c r="BM55" s="74"/>
-      <c r="BN55" s="74"/>
-      <c r="BO55" s="74"/>
-      <c r="BP55" s="74"/>
-      <c r="BQ55" s="74"/>
-      <c r="BR55" s="74"/>
-      <c r="BS55" s="74"/>
-      <c r="BT55" s="74"/>
-      <c r="BU55" s="74"/>
-      <c r="BV55" s="74"/>
-      <c r="BW55" s="74"/>
-      <c r="BX55" s="74"/>
-      <c r="BY55" s="74"/>
-      <c r="BZ55" s="74"/>
-      <c r="CA55" s="74"/>
-      <c r="CB55" s="74"/>
-      <c r="CC55" s="74"/>
-      <c r="CD55" s="74"/>
-      <c r="CE55" s="74"/>
-      <c r="CF55" s="74"/>
-      <c r="CG55" s="74"/>
-      <c r="CH55" s="74"/>
-      <c r="CI55" s="74"/>
-      <c r="CJ55" s="74"/>
-      <c r="CK55" s="74"/>
-      <c r="CL55" s="74"/>
+      <c r="AX55" s="92"/>
+      <c r="AY55" s="92"/>
+      <c r="AZ55" s="92"/>
+      <c r="BA55" s="92"/>
+      <c r="BB55" s="92"/>
+      <c r="BC55" s="92"/>
+      <c r="BD55" s="92"/>
+      <c r="BE55" s="92"/>
+      <c r="BF55" s="92"/>
+      <c r="BG55" s="92"/>
+      <c r="BH55" s="92"/>
+      <c r="BI55" s="92"/>
+      <c r="BJ55" s="92"/>
+      <c r="BK55" s="92"/>
+      <c r="BL55" s="92"/>
+      <c r="BM55" s="92"/>
+      <c r="BN55" s="92"/>
+      <c r="BO55" s="92"/>
+      <c r="BP55" s="92"/>
+      <c r="BQ55" s="92"/>
+      <c r="BR55" s="92"/>
+      <c r="BS55" s="92"/>
+      <c r="BT55" s="92"/>
+      <c r="BU55" s="92"/>
+      <c r="BV55" s="92"/>
+      <c r="BW55" s="92"/>
+      <c r="BX55" s="92"/>
+      <c r="BY55" s="92"/>
+      <c r="BZ55" s="92"/>
+      <c r="CA55" s="92"/>
+      <c r="CB55" s="92"/>
+      <c r="CC55" s="92"/>
+      <c r="CD55" s="92"/>
+      <c r="CE55" s="92"/>
+      <c r="CF55" s="92"/>
+      <c r="CG55" s="92"/>
+      <c r="CH55" s="92"/>
+      <c r="CI55" s="92"/>
+      <c r="CJ55" s="92"/>
+      <c r="CK55" s="92"/>
+      <c r="CL55" s="92"/>
       <c r="CM55" s="25"/>
       <c r="CN55" s="25"/>
       <c r="CO55" s="25"/>
@@ -17776,66 +17584,66 @@
     <row r="56" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="90"/>
+      <c r="T56" s="90"/>
+      <c r="U56" s="90"/>
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
       <c r="AV56" s="25"/>
       <c r="AW56" s="25"/>
-      <c r="AX56" s="74"/>
-      <c r="AY56" s="74"/>
-      <c r="AZ56" s="74"/>
-      <c r="BA56" s="74"/>
-      <c r="BB56" s="74"/>
-      <c r="BC56" s="74"/>
-      <c r="BD56" s="74"/>
-      <c r="BE56" s="74"/>
-      <c r="BF56" s="74"/>
-      <c r="BG56" s="74"/>
-      <c r="BH56" s="74"/>
-      <c r="BI56" s="74"/>
-      <c r="BJ56" s="74"/>
-      <c r="BK56" s="74"/>
-      <c r="BL56" s="74"/>
-      <c r="BM56" s="74"/>
-      <c r="BN56" s="74"/>
-      <c r="BO56" s="74"/>
-      <c r="BP56" s="74"/>
-      <c r="BQ56" s="74"/>
-      <c r="BR56" s="74"/>
-      <c r="BS56" s="74"/>
-      <c r="BT56" s="74"/>
-      <c r="BU56" s="74"/>
-      <c r="BV56" s="74"/>
-      <c r="BW56" s="74"/>
-      <c r="BX56" s="74"/>
-      <c r="BY56" s="74"/>
-      <c r="BZ56" s="74"/>
-      <c r="CA56" s="74"/>
-      <c r="CB56" s="74"/>
-      <c r="CC56" s="74"/>
-      <c r="CD56" s="74"/>
-      <c r="CE56" s="74"/>
-      <c r="CF56" s="74"/>
-      <c r="CG56" s="74"/>
-      <c r="CH56" s="74"/>
-      <c r="CI56" s="74"/>
-      <c r="CJ56" s="74"/>
-      <c r="CK56" s="74"/>
-      <c r="CL56" s="74"/>
+      <c r="AX56" s="92"/>
+      <c r="AY56" s="92"/>
+      <c r="AZ56" s="92"/>
+      <c r="BA56" s="92"/>
+      <c r="BB56" s="92"/>
+      <c r="BC56" s="92"/>
+      <c r="BD56" s="92"/>
+      <c r="BE56" s="92"/>
+      <c r="BF56" s="92"/>
+      <c r="BG56" s="92"/>
+      <c r="BH56" s="92"/>
+      <c r="BI56" s="92"/>
+      <c r="BJ56" s="92"/>
+      <c r="BK56" s="92"/>
+      <c r="BL56" s="92"/>
+      <c r="BM56" s="92"/>
+      <c r="BN56" s="92"/>
+      <c r="BO56" s="92"/>
+      <c r="BP56" s="92"/>
+      <c r="BQ56" s="92"/>
+      <c r="BR56" s="92"/>
+      <c r="BS56" s="92"/>
+      <c r="BT56" s="92"/>
+      <c r="BU56" s="92"/>
+      <c r="BV56" s="92"/>
+      <c r="BW56" s="92"/>
+      <c r="BX56" s="92"/>
+      <c r="BY56" s="92"/>
+      <c r="BZ56" s="92"/>
+      <c r="CA56" s="92"/>
+      <c r="CB56" s="92"/>
+      <c r="CC56" s="92"/>
+      <c r="CD56" s="92"/>
+      <c r="CE56" s="92"/>
+      <c r="CF56" s="92"/>
+      <c r="CG56" s="92"/>
+      <c r="CH56" s="92"/>
+      <c r="CI56" s="92"/>
+      <c r="CJ56" s="92"/>
+      <c r="CK56" s="92"/>
+      <c r="CL56" s="92"/>
       <c r="CM56" s="25"/>
       <c r="CN56" s="25"/>
       <c r="CO56" s="25"/>
@@ -17844,66 +17652,66 @@
     <row r="57" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
       <c r="AV57" s="25"/>
       <c r="AW57" s="25"/>
-      <c r="AX57" s="74"/>
-      <c r="AY57" s="74"/>
-      <c r="AZ57" s="74"/>
-      <c r="BA57" s="74"/>
-      <c r="BB57" s="74"/>
-      <c r="BC57" s="74"/>
-      <c r="BD57" s="74"/>
-      <c r="BE57" s="74"/>
-      <c r="BF57" s="74"/>
-      <c r="BG57" s="74"/>
-      <c r="BH57" s="74"/>
-      <c r="BI57" s="74"/>
-      <c r="BJ57" s="74"/>
-      <c r="BK57" s="74"/>
-      <c r="BL57" s="74"/>
-      <c r="BM57" s="74"/>
-      <c r="BN57" s="74"/>
-      <c r="BO57" s="74"/>
-      <c r="BP57" s="74"/>
-      <c r="BQ57" s="74"/>
-      <c r="BR57" s="74"/>
-      <c r="BS57" s="74"/>
-      <c r="BT57" s="74"/>
-      <c r="BU57" s="74"/>
-      <c r="BV57" s="74"/>
-      <c r="BW57" s="74"/>
-      <c r="BX57" s="74"/>
-      <c r="BY57" s="74"/>
-      <c r="BZ57" s="74"/>
-      <c r="CA57" s="74"/>
-      <c r="CB57" s="74"/>
-      <c r="CC57" s="74"/>
-      <c r="CD57" s="74"/>
-      <c r="CE57" s="74"/>
-      <c r="CF57" s="74"/>
-      <c r="CG57" s="74"/>
-      <c r="CH57" s="74"/>
-      <c r="CI57" s="74"/>
-      <c r="CJ57" s="74"/>
-      <c r="CK57" s="74"/>
-      <c r="CL57" s="74"/>
+      <c r="AX57" s="92"/>
+      <c r="AY57" s="92"/>
+      <c r="AZ57" s="92"/>
+      <c r="BA57" s="92"/>
+      <c r="BB57" s="92"/>
+      <c r="BC57" s="92"/>
+      <c r="BD57" s="92"/>
+      <c r="BE57" s="92"/>
+      <c r="BF57" s="92"/>
+      <c r="BG57" s="92"/>
+      <c r="BH57" s="92"/>
+      <c r="BI57" s="92"/>
+      <c r="BJ57" s="92"/>
+      <c r="BK57" s="92"/>
+      <c r="BL57" s="92"/>
+      <c r="BM57" s="92"/>
+      <c r="BN57" s="92"/>
+      <c r="BO57" s="92"/>
+      <c r="BP57" s="92"/>
+      <c r="BQ57" s="92"/>
+      <c r="BR57" s="92"/>
+      <c r="BS57" s="92"/>
+      <c r="BT57" s="92"/>
+      <c r="BU57" s="92"/>
+      <c r="BV57" s="92"/>
+      <c r="BW57" s="92"/>
+      <c r="BX57" s="92"/>
+      <c r="BY57" s="92"/>
+      <c r="BZ57" s="92"/>
+      <c r="CA57" s="92"/>
+      <c r="CB57" s="92"/>
+      <c r="CC57" s="92"/>
+      <c r="CD57" s="92"/>
+      <c r="CE57" s="92"/>
+      <c r="CF57" s="92"/>
+      <c r="CG57" s="92"/>
+      <c r="CH57" s="92"/>
+      <c r="CI57" s="92"/>
+      <c r="CJ57" s="92"/>
+      <c r="CK57" s="92"/>
+      <c r="CL57" s="92"/>
       <c r="CM57" s="25"/>
       <c r="CN57" s="25"/>
       <c r="CO57" s="25"/>
@@ -17912,66 +17720,66 @@
     <row r="58" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="72"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="72"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="90"/>
+      <c r="S58" s="90"/>
+      <c r="T58" s="90"/>
+      <c r="U58" s="90"/>
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
       <c r="AV58" s="25"/>
       <c r="AW58" s="25"/>
-      <c r="AX58" s="74"/>
-      <c r="AY58" s="74"/>
-      <c r="AZ58" s="74"/>
-      <c r="BA58" s="74"/>
-      <c r="BB58" s="74"/>
-      <c r="BC58" s="74"/>
-      <c r="BD58" s="74"/>
-      <c r="BE58" s="74"/>
-      <c r="BF58" s="74"/>
-      <c r="BG58" s="74"/>
-      <c r="BH58" s="74"/>
-      <c r="BI58" s="74"/>
-      <c r="BJ58" s="74"/>
-      <c r="BK58" s="74"/>
-      <c r="BL58" s="74"/>
-      <c r="BM58" s="74"/>
-      <c r="BN58" s="74"/>
-      <c r="BO58" s="74"/>
-      <c r="BP58" s="74"/>
-      <c r="BQ58" s="74"/>
-      <c r="BR58" s="74"/>
-      <c r="BS58" s="74"/>
-      <c r="BT58" s="74"/>
-      <c r="BU58" s="74"/>
-      <c r="BV58" s="74"/>
-      <c r="BW58" s="74"/>
-      <c r="BX58" s="74"/>
-      <c r="BY58" s="74"/>
-      <c r="BZ58" s="74"/>
-      <c r="CA58" s="74"/>
-      <c r="CB58" s="74"/>
-      <c r="CC58" s="74"/>
-      <c r="CD58" s="74"/>
-      <c r="CE58" s="74"/>
-      <c r="CF58" s="74"/>
-      <c r="CG58" s="74"/>
-      <c r="CH58" s="74"/>
-      <c r="CI58" s="74"/>
-      <c r="CJ58" s="74"/>
-      <c r="CK58" s="74"/>
-      <c r="CL58" s="74"/>
+      <c r="AX58" s="92"/>
+      <c r="AY58" s="92"/>
+      <c r="AZ58" s="92"/>
+      <c r="BA58" s="92"/>
+      <c r="BB58" s="92"/>
+      <c r="BC58" s="92"/>
+      <c r="BD58" s="92"/>
+      <c r="BE58" s="92"/>
+      <c r="BF58" s="92"/>
+      <c r="BG58" s="92"/>
+      <c r="BH58" s="92"/>
+      <c r="BI58" s="92"/>
+      <c r="BJ58" s="92"/>
+      <c r="BK58" s="92"/>
+      <c r="BL58" s="92"/>
+      <c r="BM58" s="92"/>
+      <c r="BN58" s="92"/>
+      <c r="BO58" s="92"/>
+      <c r="BP58" s="92"/>
+      <c r="BQ58" s="92"/>
+      <c r="BR58" s="92"/>
+      <c r="BS58" s="92"/>
+      <c r="BT58" s="92"/>
+      <c r="BU58" s="92"/>
+      <c r="BV58" s="92"/>
+      <c r="BW58" s="92"/>
+      <c r="BX58" s="92"/>
+      <c r="BY58" s="92"/>
+      <c r="BZ58" s="92"/>
+      <c r="CA58" s="92"/>
+      <c r="CB58" s="92"/>
+      <c r="CC58" s="92"/>
+      <c r="CD58" s="92"/>
+      <c r="CE58" s="92"/>
+      <c r="CF58" s="92"/>
+      <c r="CG58" s="92"/>
+      <c r="CH58" s="92"/>
+      <c r="CI58" s="92"/>
+      <c r="CJ58" s="92"/>
+      <c r="CK58" s="92"/>
+      <c r="CL58" s="92"/>
       <c r="CM58" s="25"/>
       <c r="CN58" s="25"/>
       <c r="CO58" s="25"/>
@@ -17980,66 +17788,66 @@
     <row r="59" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
-      <c r="S59" s="72"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="72"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="90"/>
+      <c r="U59" s="90"/>
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
       <c r="AV59" s="25"/>
       <c r="AW59" s="25"/>
-      <c r="AX59" s="74"/>
-      <c r="AY59" s="74"/>
-      <c r="AZ59" s="74"/>
-      <c r="BA59" s="74"/>
-      <c r="BB59" s="74"/>
-      <c r="BC59" s="74"/>
-      <c r="BD59" s="74"/>
-      <c r="BE59" s="74"/>
-      <c r="BF59" s="74"/>
-      <c r="BG59" s="74"/>
-      <c r="BH59" s="74"/>
-      <c r="BI59" s="74"/>
-      <c r="BJ59" s="74"/>
-      <c r="BK59" s="74"/>
-      <c r="BL59" s="74"/>
-      <c r="BM59" s="74"/>
-      <c r="BN59" s="74"/>
-      <c r="BO59" s="74"/>
-      <c r="BP59" s="74"/>
-      <c r="BQ59" s="74"/>
-      <c r="BR59" s="74"/>
-      <c r="BS59" s="74"/>
-      <c r="BT59" s="74"/>
-      <c r="BU59" s="74"/>
-      <c r="BV59" s="74"/>
-      <c r="BW59" s="74"/>
-      <c r="BX59" s="74"/>
-      <c r="BY59" s="74"/>
-      <c r="BZ59" s="74"/>
-      <c r="CA59" s="74"/>
-      <c r="CB59" s="74"/>
-      <c r="CC59" s="74"/>
-      <c r="CD59" s="74"/>
-      <c r="CE59" s="74"/>
-      <c r="CF59" s="74"/>
-      <c r="CG59" s="74"/>
-      <c r="CH59" s="74"/>
-      <c r="CI59" s="74"/>
-      <c r="CJ59" s="74"/>
-      <c r="CK59" s="74"/>
-      <c r="CL59" s="74"/>
+      <c r="AX59" s="92"/>
+      <c r="AY59" s="92"/>
+      <c r="AZ59" s="92"/>
+      <c r="BA59" s="92"/>
+      <c r="BB59" s="92"/>
+      <c r="BC59" s="92"/>
+      <c r="BD59" s="92"/>
+      <c r="BE59" s="92"/>
+      <c r="BF59" s="92"/>
+      <c r="BG59" s="92"/>
+      <c r="BH59" s="92"/>
+      <c r="BI59" s="92"/>
+      <c r="BJ59" s="92"/>
+      <c r="BK59" s="92"/>
+      <c r="BL59" s="92"/>
+      <c r="BM59" s="92"/>
+      <c r="BN59" s="92"/>
+      <c r="BO59" s="92"/>
+      <c r="BP59" s="92"/>
+      <c r="BQ59" s="92"/>
+      <c r="BR59" s="92"/>
+      <c r="BS59" s="92"/>
+      <c r="BT59" s="92"/>
+      <c r="BU59" s="92"/>
+      <c r="BV59" s="92"/>
+      <c r="BW59" s="92"/>
+      <c r="BX59" s="92"/>
+      <c r="BY59" s="92"/>
+      <c r="BZ59" s="92"/>
+      <c r="CA59" s="92"/>
+      <c r="CB59" s="92"/>
+      <c r="CC59" s="92"/>
+      <c r="CD59" s="92"/>
+      <c r="CE59" s="92"/>
+      <c r="CF59" s="92"/>
+      <c r="CG59" s="92"/>
+      <c r="CH59" s="92"/>
+      <c r="CI59" s="92"/>
+      <c r="CJ59" s="92"/>
+      <c r="CK59" s="92"/>
+      <c r="CL59" s="92"/>
       <c r="CM59" s="25"/>
       <c r="CN59" s="25"/>
       <c r="CO59" s="25"/>
@@ -18048,86 +17856,86 @@
     <row r="60" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="72"/>
-      <c r="U60" s="72"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="90"/>
+      <c r="Q60" s="90"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="90"/>
+      <c r="U60" s="90"/>
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
       <c r="AD60" s="25"/>
       <c r="AE60" s="25"/>
-      <c r="AF60" s="73">
+      <c r="AF60" s="91">
         <v>2</v>
       </c>
-      <c r="AG60" s="73"/>
-      <c r="AH60" s="73"/>
-      <c r="AI60" s="73"/>
-      <c r="AJ60" s="73"/>
-      <c r="AK60" s="73"/>
-      <c r="AL60" s="73"/>
-      <c r="AM60" s="73"/>
-      <c r="AN60" s="73"/>
-      <c r="AO60" s="73"/>
-      <c r="AP60" s="73"/>
-      <c r="AQ60" s="73"/>
-      <c r="AR60" s="73"/>
-      <c r="AS60" s="73"/>
-      <c r="AT60" s="73"/>
-      <c r="AU60" s="73"/>
+      <c r="AG60" s="91"/>
+      <c r="AH60" s="91"/>
+      <c r="AI60" s="91"/>
+      <c r="AJ60" s="91"/>
+      <c r="AK60" s="91"/>
+      <c r="AL60" s="91"/>
+      <c r="AM60" s="91"/>
+      <c r="AN60" s="91"/>
+      <c r="AO60" s="91"/>
+      <c r="AP60" s="91"/>
+      <c r="AQ60" s="91"/>
+      <c r="AR60" s="91"/>
+      <c r="AS60" s="91"/>
+      <c r="AT60" s="91"/>
+      <c r="AU60" s="91"/>
       <c r="AV60" s="25"/>
       <c r="AW60" s="25"/>
-      <c r="AX60" s="74"/>
-      <c r="AY60" s="74"/>
-      <c r="AZ60" s="74"/>
-      <c r="BA60" s="74"/>
-      <c r="BB60" s="74"/>
-      <c r="BC60" s="74"/>
-      <c r="BD60" s="74"/>
-      <c r="BE60" s="74"/>
-      <c r="BF60" s="74"/>
-      <c r="BG60" s="74"/>
-      <c r="BH60" s="74"/>
-      <c r="BI60" s="74"/>
-      <c r="BJ60" s="74"/>
-      <c r="BK60" s="74"/>
-      <c r="BL60" s="74"/>
-      <c r="BM60" s="74"/>
-      <c r="BN60" s="74"/>
-      <c r="BO60" s="74"/>
-      <c r="BP60" s="74"/>
-      <c r="BQ60" s="74"/>
-      <c r="BR60" s="74"/>
-      <c r="BS60" s="74"/>
-      <c r="BT60" s="74"/>
-      <c r="BU60" s="74"/>
-      <c r="BV60" s="74"/>
-      <c r="BW60" s="74"/>
-      <c r="BX60" s="74"/>
-      <c r="BY60" s="74"/>
-      <c r="BZ60" s="74"/>
-      <c r="CA60" s="74"/>
-      <c r="CB60" s="74"/>
-      <c r="CC60" s="74"/>
-      <c r="CD60" s="74"/>
-      <c r="CE60" s="74"/>
-      <c r="CF60" s="74"/>
-      <c r="CG60" s="74"/>
-      <c r="CH60" s="74"/>
-      <c r="CI60" s="74"/>
-      <c r="CJ60" s="74"/>
-      <c r="CK60" s="74"/>
-      <c r="CL60" s="74"/>
+      <c r="AX60" s="92"/>
+      <c r="AY60" s="92"/>
+      <c r="AZ60" s="92"/>
+      <c r="BA60" s="92"/>
+      <c r="BB60" s="92"/>
+      <c r="BC60" s="92"/>
+      <c r="BD60" s="92"/>
+      <c r="BE60" s="92"/>
+      <c r="BF60" s="92"/>
+      <c r="BG60" s="92"/>
+      <c r="BH60" s="92"/>
+      <c r="BI60" s="92"/>
+      <c r="BJ60" s="92"/>
+      <c r="BK60" s="92"/>
+      <c r="BL60" s="92"/>
+      <c r="BM60" s="92"/>
+      <c r="BN60" s="92"/>
+      <c r="BO60" s="92"/>
+      <c r="BP60" s="92"/>
+      <c r="BQ60" s="92"/>
+      <c r="BR60" s="92"/>
+      <c r="BS60" s="92"/>
+      <c r="BT60" s="92"/>
+      <c r="BU60" s="92"/>
+      <c r="BV60" s="92"/>
+      <c r="BW60" s="92"/>
+      <c r="BX60" s="92"/>
+      <c r="BY60" s="92"/>
+      <c r="BZ60" s="92"/>
+      <c r="CA60" s="92"/>
+      <c r="CB60" s="92"/>
+      <c r="CC60" s="92"/>
+      <c r="CD60" s="92"/>
+      <c r="CE60" s="92"/>
+      <c r="CF60" s="92"/>
+      <c r="CG60" s="92"/>
+      <c r="CH60" s="92"/>
+      <c r="CI60" s="92"/>
+      <c r="CJ60" s="92"/>
+      <c r="CK60" s="92"/>
+      <c r="CL60" s="92"/>
       <c r="CM60" s="25"/>
       <c r="CN60" s="25"/>
       <c r="CO60" s="25"/>
@@ -18136,86 +17944,86 @@
     <row r="61" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="90"/>
+      <c r="U61" s="90"/>
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
       <c r="Z61" s="28"/>
       <c r="AA61" s="28"/>
       <c r="AD61" s="25"/>
       <c r="AE61" s="25"/>
-      <c r="AF61" s="73"/>
-      <c r="AG61" s="73"/>
-      <c r="AH61" s="73"/>
-      <c r="AI61" s="73"/>
-      <c r="AJ61" s="73"/>
-      <c r="AK61" s="73"/>
-      <c r="AL61" s="73"/>
-      <c r="AM61" s="73"/>
-      <c r="AN61" s="73"/>
-      <c r="AO61" s="73"/>
-      <c r="AP61" s="73"/>
-      <c r="AQ61" s="73"/>
-      <c r="AR61" s="73"/>
-      <c r="AS61" s="73"/>
-      <c r="AT61" s="73"/>
-      <c r="AU61" s="73"/>
+      <c r="AF61" s="91"/>
+      <c r="AG61" s="91"/>
+      <c r="AH61" s="91"/>
+      <c r="AI61" s="91"/>
+      <c r="AJ61" s="91"/>
+      <c r="AK61" s="91"/>
+      <c r="AL61" s="91"/>
+      <c r="AM61" s="91"/>
+      <c r="AN61" s="91"/>
+      <c r="AO61" s="91"/>
+      <c r="AP61" s="91"/>
+      <c r="AQ61" s="91"/>
+      <c r="AR61" s="91"/>
+      <c r="AS61" s="91"/>
+      <c r="AT61" s="91"/>
+      <c r="AU61" s="91"/>
       <c r="AV61" s="25"/>
       <c r="AW61" s="25"/>
-      <c r="AX61" s="74"/>
-      <c r="AY61" s="74"/>
-      <c r="AZ61" s="74"/>
-      <c r="BA61" s="74"/>
-      <c r="BB61" s="74"/>
-      <c r="BC61" s="74"/>
-      <c r="BD61" s="74"/>
-      <c r="BE61" s="74"/>
-      <c r="BF61" s="74"/>
-      <c r="BG61" s="74"/>
-      <c r="BH61" s="74"/>
-      <c r="BI61" s="74"/>
-      <c r="BJ61" s="74"/>
-      <c r="BK61" s="74"/>
-      <c r="BL61" s="74"/>
-      <c r="BM61" s="74"/>
-      <c r="BN61" s="74"/>
-      <c r="BO61" s="74"/>
-      <c r="BP61" s="74"/>
-      <c r="BQ61" s="74"/>
-      <c r="BR61" s="74"/>
-      <c r="BS61" s="74"/>
-      <c r="BT61" s="74"/>
-      <c r="BU61" s="74"/>
-      <c r="BV61" s="74"/>
-      <c r="BW61" s="74"/>
-      <c r="BX61" s="74"/>
-      <c r="BY61" s="74"/>
-      <c r="BZ61" s="74"/>
-      <c r="CA61" s="74"/>
-      <c r="CB61" s="74"/>
-      <c r="CC61" s="74"/>
-      <c r="CD61" s="74"/>
-      <c r="CE61" s="74"/>
-      <c r="CF61" s="74"/>
-      <c r="CG61" s="74"/>
-      <c r="CH61" s="74"/>
-      <c r="CI61" s="74"/>
-      <c r="CJ61" s="74"/>
-      <c r="CK61" s="74"/>
-      <c r="CL61" s="74"/>
+      <c r="AX61" s="92"/>
+      <c r="AY61" s="92"/>
+      <c r="AZ61" s="92"/>
+      <c r="BA61" s="92"/>
+      <c r="BB61" s="92"/>
+      <c r="BC61" s="92"/>
+      <c r="BD61" s="92"/>
+      <c r="BE61" s="92"/>
+      <c r="BF61" s="92"/>
+      <c r="BG61" s="92"/>
+      <c r="BH61" s="92"/>
+      <c r="BI61" s="92"/>
+      <c r="BJ61" s="92"/>
+      <c r="BK61" s="92"/>
+      <c r="BL61" s="92"/>
+      <c r="BM61" s="92"/>
+      <c r="BN61" s="92"/>
+      <c r="BO61" s="92"/>
+      <c r="BP61" s="92"/>
+      <c r="BQ61" s="92"/>
+      <c r="BR61" s="92"/>
+      <c r="BS61" s="92"/>
+      <c r="BT61" s="92"/>
+      <c r="BU61" s="92"/>
+      <c r="BV61" s="92"/>
+      <c r="BW61" s="92"/>
+      <c r="BX61" s="92"/>
+      <c r="BY61" s="92"/>
+      <c r="BZ61" s="92"/>
+      <c r="CA61" s="92"/>
+      <c r="CB61" s="92"/>
+      <c r="CC61" s="92"/>
+      <c r="CD61" s="92"/>
+      <c r="CE61" s="92"/>
+      <c r="CF61" s="92"/>
+      <c r="CG61" s="92"/>
+      <c r="CH61" s="92"/>
+      <c r="CI61" s="92"/>
+      <c r="CJ61" s="92"/>
+      <c r="CK61" s="92"/>
+      <c r="CL61" s="92"/>
       <c r="CM61" s="25"/>
       <c r="CN61" s="25"/>
       <c r="CO61" s="25"/>
@@ -18224,86 +18032,86 @@
     <row r="62" spans="5:94" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
       <c r="Z62" s="26"/>
       <c r="AA62" s="28"/>
       <c r="AD62" s="25"/>
       <c r="AE62" s="25"/>
-      <c r="AF62" s="73"/>
-      <c r="AG62" s="73"/>
-      <c r="AH62" s="73"/>
-      <c r="AI62" s="73"/>
-      <c r="AJ62" s="73"/>
-      <c r="AK62" s="73"/>
-      <c r="AL62" s="73"/>
-      <c r="AM62" s="73"/>
-      <c r="AN62" s="73"/>
-      <c r="AO62" s="73"/>
-      <c r="AP62" s="73"/>
-      <c r="AQ62" s="73"/>
-      <c r="AR62" s="73"/>
-      <c r="AS62" s="73"/>
-      <c r="AT62" s="73"/>
-      <c r="AU62" s="73"/>
+      <c r="AF62" s="91"/>
+      <c r="AG62" s="91"/>
+      <c r="AH62" s="91"/>
+      <c r="AI62" s="91"/>
+      <c r="AJ62" s="91"/>
+      <c r="AK62" s="91"/>
+      <c r="AL62" s="91"/>
+      <c r="AM62" s="91"/>
+      <c r="AN62" s="91"/>
+      <c r="AO62" s="91"/>
+      <c r="AP62" s="91"/>
+      <c r="AQ62" s="91"/>
+      <c r="AR62" s="91"/>
+      <c r="AS62" s="91"/>
+      <c r="AT62" s="91"/>
+      <c r="AU62" s="91"/>
       <c r="AV62" s="25"/>
       <c r="AW62" s="25"/>
-      <c r="AX62" s="74"/>
-      <c r="AY62" s="74"/>
-      <c r="AZ62" s="74"/>
-      <c r="BA62" s="74"/>
-      <c r="BB62" s="74"/>
-      <c r="BC62" s="74"/>
-      <c r="BD62" s="74"/>
-      <c r="BE62" s="74"/>
-      <c r="BF62" s="74"/>
-      <c r="BG62" s="74"/>
-      <c r="BH62" s="74"/>
-      <c r="BI62" s="74"/>
-      <c r="BJ62" s="74"/>
-      <c r="BK62" s="74"/>
-      <c r="BL62" s="74"/>
-      <c r="BM62" s="74"/>
-      <c r="BN62" s="74"/>
-      <c r="BO62" s="74"/>
-      <c r="BP62" s="74"/>
-      <c r="BQ62" s="74"/>
-      <c r="BR62" s="74"/>
-      <c r="BS62" s="74"/>
-      <c r="BT62" s="74"/>
-      <c r="BU62" s="74"/>
-      <c r="BV62" s="74"/>
-      <c r="BW62" s="74"/>
-      <c r="BX62" s="74"/>
-      <c r="BY62" s="74"/>
-      <c r="BZ62" s="74"/>
-      <c r="CA62" s="74"/>
-      <c r="CB62" s="74"/>
-      <c r="CC62" s="74"/>
-      <c r="CD62" s="74"/>
-      <c r="CE62" s="74"/>
-      <c r="CF62" s="74"/>
-      <c r="CG62" s="74"/>
-      <c r="CH62" s="74"/>
-      <c r="CI62" s="74"/>
-      <c r="CJ62" s="74"/>
-      <c r="CK62" s="74"/>
-      <c r="CL62" s="74"/>
+      <c r="AX62" s="92"/>
+      <c r="AY62" s="92"/>
+      <c r="AZ62" s="92"/>
+      <c r="BA62" s="92"/>
+      <c r="BB62" s="92"/>
+      <c r="BC62" s="92"/>
+      <c r="BD62" s="92"/>
+      <c r="BE62" s="92"/>
+      <c r="BF62" s="92"/>
+      <c r="BG62" s="92"/>
+      <c r="BH62" s="92"/>
+      <c r="BI62" s="92"/>
+      <c r="BJ62" s="92"/>
+      <c r="BK62" s="92"/>
+      <c r="BL62" s="92"/>
+      <c r="BM62" s="92"/>
+      <c r="BN62" s="92"/>
+      <c r="BO62" s="92"/>
+      <c r="BP62" s="92"/>
+      <c r="BQ62" s="92"/>
+      <c r="BR62" s="92"/>
+      <c r="BS62" s="92"/>
+      <c r="BT62" s="92"/>
+      <c r="BU62" s="92"/>
+      <c r="BV62" s="92"/>
+      <c r="BW62" s="92"/>
+      <c r="BX62" s="92"/>
+      <c r="BY62" s="92"/>
+      <c r="BZ62" s="92"/>
+      <c r="CA62" s="92"/>
+      <c r="CB62" s="92"/>
+      <c r="CC62" s="92"/>
+      <c r="CD62" s="92"/>
+      <c r="CE62" s="92"/>
+      <c r="CF62" s="92"/>
+      <c r="CG62" s="92"/>
+      <c r="CH62" s="92"/>
+      <c r="CI62" s="92"/>
+      <c r="CJ62" s="92"/>
+      <c r="CK62" s="92"/>
+      <c r="CL62" s="92"/>
       <c r="CM62" s="25"/>
       <c r="CN62" s="25"/>
       <c r="CO62" s="25"/>
@@ -18553,55 +18361,55 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
-      <c r="AH2" s="58" t="s">
+      <c r="AH2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AW2" s="66" t="s">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AW2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="60" t="s">
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="61"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="79"/>
     </row>
     <row r="3" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
@@ -18647,49 +18455,49 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="16"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="63"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80"/>
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80"/>
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="80"/>
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="81"/>
     </row>
     <row r="4" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
@@ -18723,49 +18531,49 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="16"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="62"/>
-      <c r="BQ4" s="62"/>
-      <c r="BR4" s="62"/>
-      <c r="BS4" s="62"/>
-      <c r="BT4" s="62"/>
-      <c r="BU4" s="62"/>
-      <c r="BV4" s="62"/>
-      <c r="BW4" s="62"/>
-      <c r="BX4" s="62"/>
-      <c r="BY4" s="63"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="80"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
+      <c r="BW4" s="80"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="81"/>
     </row>
     <row r="5" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
@@ -18818,49 +18626,49 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="16"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="62"/>
-      <c r="BX5" s="62"/>
-      <c r="BY5" s="63"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="80"/>
+      <c r="BN5" s="80"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="80"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="81"/>
     </row>
     <row r="6" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
@@ -18894,49 +18702,49 @@
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="20"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64"/>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="65"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="82"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="82"/>
+      <c r="BK6" s="82"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="BR6" s="82"/>
+      <c r="BS6" s="82"/>
+      <c r="BT6" s="82"/>
+      <c r="BU6" s="82"/>
+      <c r="BV6" s="82"/>
+      <c r="BW6" s="82"/>
+      <c r="BX6" s="82"/>
+      <c r="BY6" s="83"/>
     </row>
     <row r="9" spans="2:77" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="28"/>
@@ -19569,19 +19377,19 @@
     </row>
     <row r="18" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="25"/>
-      <c r="BP18" s="76">
+      <c r="BP18" s="95">
         <v>2</v>
       </c>
       <c r="BQ18" s="25"/>
     </row>
     <row r="19" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="25"/>
-      <c r="BP19" s="76"/>
+      <c r="BP19" s="95"/>
       <c r="BQ19" s="25"/>
     </row>
     <row r="20" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="25"/>
-      <c r="BP20" s="76"/>
+      <c r="BP20" s="95"/>
       <c r="BQ20" s="25"/>
     </row>
     <row r="21" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19637,40 +19445,40 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
-      <c r="AJ25" s="78">
+      <c r="AJ25" s="97">
         <v>3</v>
       </c>
-      <c r="AK25" s="78"/>
-      <c r="AP25" s="78">
+      <c r="AK25" s="97"/>
+      <c r="AP25" s="97">
         <v>3</v>
       </c>
-      <c r="AQ25" s="78"/>
-      <c r="BF25" s="78">
+      <c r="AQ25" s="97"/>
+      <c r="BF25" s="97">
         <v>3</v>
       </c>
-      <c r="BG25" s="78"/>
+      <c r="BG25" s="97"/>
       <c r="BK25" s="28"/>
       <c r="BL25" s="25"/>
-      <c r="BM25" s="76">
+      <c r="BM25" s="95">
         <v>2</v>
       </c>
       <c r="BQ25" s="25"/>
     </row>
     <row r="26" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="25"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AP26" s="78"/>
-      <c r="AQ26" s="78"/>
-      <c r="AX26" s="78">
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="97"/>
+      <c r="AP26" s="97"/>
+      <c r="AQ26" s="97"/>
+      <c r="AX26" s="97">
         <v>3</v>
       </c>
-      <c r="AY26" s="78"/>
-      <c r="BF26" s="78"/>
-      <c r="BG26" s="78"/>
+      <c r="AY26" s="97"/>
+      <c r="BF26" s="97"/>
+      <c r="BG26" s="97"/>
       <c r="BK26" s="28"/>
       <c r="BL26" s="25"/>
-      <c r="BM26" s="76"/>
+      <c r="BM26" s="95"/>
       <c r="BQ26" s="25"/>
     </row>
     <row r="27" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19683,11 +19491,11 @@
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
       <c r="AI27" s="25"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
+      <c r="AX27" s="97"/>
+      <c r="AY27" s="97"/>
       <c r="BK27" s="28"/>
       <c r="BL27" s="25"/>
-      <c r="BM27" s="76"/>
+      <c r="BM27" s="95"/>
       <c r="BQ27" s="25"/>
     </row>
     <row r="28" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19722,7 +19530,7 @@
       <c r="C32" s="25"/>
       <c r="BK32" s="28"/>
       <c r="BL32" s="25"/>
-      <c r="BP32" s="76">
+      <c r="BP32" s="95">
         <v>2</v>
       </c>
       <c r="BQ32" s="25"/>
@@ -19731,14 +19539,14 @@
       <c r="C33" s="25"/>
       <c r="BK33" s="28"/>
       <c r="BL33" s="25"/>
-      <c r="BP33" s="76"/>
+      <c r="BP33" s="95"/>
       <c r="BQ33" s="25"/>
     </row>
     <row r="34" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="25"/>
       <c r="BK34" s="28"/>
       <c r="BL34" s="25"/>
-      <c r="BP34" s="76"/>
+      <c r="BP34" s="95"/>
       <c r="BQ34" s="25"/>
     </row>
     <row r="35" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19767,31 +19575,31 @@
     </row>
     <row r="39" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="25"/>
-      <c r="W39" s="78">
+      <c r="W39" s="97">
         <v>3</v>
       </c>
-      <c r="X39" s="78"/>
+      <c r="X39" s="97"/>
       <c r="BK39" s="28"/>
       <c r="BL39" s="25"/>
-      <c r="BM39" s="76">
+      <c r="BM39" s="95">
         <v>2</v>
       </c>
       <c r="BQ39" s="25"/>
     </row>
     <row r="40" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="25"/>
-      <c r="W40" s="78"/>
-      <c r="X40" s="78"/>
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
       <c r="BK40" s="28"/>
       <c r="BL40" s="25"/>
-      <c r="BM40" s="76"/>
+      <c r="BM40" s="95"/>
       <c r="BQ40" s="25"/>
     </row>
     <row r="41" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="25"/>
       <c r="BK41" s="28"/>
       <c r="BL41" s="25"/>
-      <c r="BM41" s="76"/>
+      <c r="BM41" s="95"/>
       <c r="BQ41" s="25"/>
     </row>
     <row r="42" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19814,10 +19622,10 @@
     </row>
     <row r="45" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="25"/>
-      <c r="AB45" s="78">
+      <c r="AB45" s="97">
         <v>4</v>
       </c>
-      <c r="AC45" s="78"/>
+      <c r="AC45" s="97"/>
       <c r="BK45" s="28"/>
       <c r="BL45" s="25"/>
       <c r="BQ45" s="25"/>
@@ -19826,11 +19634,11 @@
       <c r="C46" s="25"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
-      <c r="AB46" s="78"/>
-      <c r="AC46" s="78"/>
+      <c r="AB46" s="97"/>
+      <c r="AC46" s="97"/>
       <c r="BK46" s="28"/>
       <c r="BL46" s="25"/>
-      <c r="BP46" s="76">
+      <c r="BP46" s="95">
         <v>2</v>
       </c>
       <c r="BQ46" s="25"/>
@@ -19841,14 +19649,14 @@
       <c r="N47" s="25"/>
       <c r="BK47" s="28"/>
       <c r="BL47" s="25"/>
-      <c r="BP47" s="76"/>
+      <c r="BP47" s="95"/>
       <c r="BQ47" s="25"/>
     </row>
     <row r="48" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="25"/>
       <c r="BK48" s="28"/>
       <c r="BL48" s="25"/>
-      <c r="BP48" s="76"/>
+      <c r="BP48" s="95"/>
       <c r="BQ48" s="25"/>
     </row>
     <row r="49" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19856,18 +19664,18 @@
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
-      <c r="M49" s="78">
+      <c r="M49" s="97">
         <v>3</v>
       </c>
-      <c r="N49" s="78"/>
+      <c r="N49" s="97"/>
       <c r="BK49" s="28"/>
       <c r="BL49" s="25"/>
       <c r="BQ49" s="25"/>
     </row>
     <row r="50" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="25"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="97"/>
       <c r="P50" s="25"/>
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
@@ -19884,40 +19692,40 @@
       <c r="U51" s="25"/>
       <c r="Z51" s="25"/>
       <c r="AE51" s="25"/>
-      <c r="AF51" s="77">
+      <c r="AF51" s="96">
         <v>1</v>
       </c>
-      <c r="AG51" s="77"/>
-      <c r="AH51" s="77"/>
-      <c r="AI51" s="77"/>
-      <c r="AJ51" s="77"/>
-      <c r="AK51" s="77"/>
-      <c r="AL51" s="77"/>
-      <c r="AM51" s="77"/>
-      <c r="AN51" s="77"/>
-      <c r="AO51" s="77"/>
-      <c r="AP51" s="77"/>
-      <c r="AQ51" s="77"/>
-      <c r="AR51" s="77"/>
-      <c r="AS51" s="77"/>
-      <c r="AT51" s="77"/>
-      <c r="AU51" s="77"/>
-      <c r="AV51" s="77"/>
-      <c r="AW51" s="77"/>
-      <c r="AX51" s="77"/>
-      <c r="AY51" s="77"/>
-      <c r="AZ51" s="77"/>
-      <c r="BA51" s="77"/>
-      <c r="BB51" s="77"/>
-      <c r="BC51" s="77"/>
-      <c r="BD51" s="77"/>
-      <c r="BE51" s="77"/>
-      <c r="BF51" s="77"/>
-      <c r="BG51" s="77"/>
-      <c r="BH51" s="77"/>
-      <c r="BI51" s="77"/>
-      <c r="BJ51" s="77"/>
-      <c r="BK51" s="77"/>
+      <c r="AG51" s="96"/>
+      <c r="AH51" s="96"/>
+      <c r="AI51" s="96"/>
+      <c r="AJ51" s="96"/>
+      <c r="AK51" s="96"/>
+      <c r="AL51" s="96"/>
+      <c r="AM51" s="96"/>
+      <c r="AN51" s="96"/>
+      <c r="AO51" s="96"/>
+      <c r="AP51" s="96"/>
+      <c r="AQ51" s="96"/>
+      <c r="AR51" s="96"/>
+      <c r="AS51" s="96"/>
+      <c r="AT51" s="96"/>
+      <c r="AU51" s="96"/>
+      <c r="AV51" s="96"/>
+      <c r="AW51" s="96"/>
+      <c r="AX51" s="96"/>
+      <c r="AY51" s="96"/>
+      <c r="AZ51" s="96"/>
+      <c r="BA51" s="96"/>
+      <c r="BB51" s="96"/>
+      <c r="BC51" s="96"/>
+      <c r="BD51" s="96"/>
+      <c r="BE51" s="96"/>
+      <c r="BF51" s="96"/>
+      <c r="BG51" s="96"/>
+      <c r="BH51" s="96"/>
+      <c r="BI51" s="96"/>
+      <c r="BJ51" s="96"/>
+      <c r="BK51" s="96"/>
       <c r="BL51" s="25"/>
       <c r="BQ51" s="25"/>
     </row>
@@ -19926,88 +19734,88 @@
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
       <c r="P52" s="25"/>
-      <c r="T52" s="79">
+      <c r="T52" s="98">
         <v>2</v>
       </c>
       <c r="U52" s="25"/>
       <c r="Z52" s="25"/>
       <c r="AE52" s="25"/>
-      <c r="AF52" s="77"/>
-      <c r="AG52" s="77"/>
-      <c r="AH52" s="77"/>
-      <c r="AI52" s="77"/>
-      <c r="AJ52" s="77"/>
-      <c r="AK52" s="77"/>
-      <c r="AL52" s="77"/>
-      <c r="AM52" s="77"/>
-      <c r="AN52" s="77"/>
-      <c r="AO52" s="77"/>
-      <c r="AP52" s="77"/>
-      <c r="AQ52" s="77"/>
-      <c r="AR52" s="77"/>
-      <c r="AS52" s="77"/>
-      <c r="AT52" s="77"/>
-      <c r="AU52" s="77"/>
-      <c r="AV52" s="77"/>
-      <c r="AW52" s="77"/>
-      <c r="AX52" s="77"/>
-      <c r="AY52" s="77"/>
-      <c r="AZ52" s="77"/>
-      <c r="BA52" s="77"/>
-      <c r="BB52" s="77"/>
-      <c r="BC52" s="77"/>
-      <c r="BD52" s="77"/>
-      <c r="BE52" s="77"/>
-      <c r="BF52" s="77"/>
-      <c r="BG52" s="77"/>
-      <c r="BH52" s="77"/>
-      <c r="BI52" s="77"/>
-      <c r="BJ52" s="77"/>
-      <c r="BK52" s="77"/>
+      <c r="AF52" s="96"/>
+      <c r="AG52" s="96"/>
+      <c r="AH52" s="96"/>
+      <c r="AI52" s="96"/>
+      <c r="AJ52" s="96"/>
+      <c r="AK52" s="96"/>
+      <c r="AL52" s="96"/>
+      <c r="AM52" s="96"/>
+      <c r="AN52" s="96"/>
+      <c r="AO52" s="96"/>
+      <c r="AP52" s="96"/>
+      <c r="AQ52" s="96"/>
+      <c r="AR52" s="96"/>
+      <c r="AS52" s="96"/>
+      <c r="AT52" s="96"/>
+      <c r="AU52" s="96"/>
+      <c r="AV52" s="96"/>
+      <c r="AW52" s="96"/>
+      <c r="AX52" s="96"/>
+      <c r="AY52" s="96"/>
+      <c r="AZ52" s="96"/>
+      <c r="BA52" s="96"/>
+      <c r="BB52" s="96"/>
+      <c r="BC52" s="96"/>
+      <c r="BD52" s="96"/>
+      <c r="BE52" s="96"/>
+      <c r="BF52" s="96"/>
+      <c r="BG52" s="96"/>
+      <c r="BH52" s="96"/>
+      <c r="BI52" s="96"/>
+      <c r="BJ52" s="96"/>
+      <c r="BK52" s="96"/>
       <c r="BL52" s="25"/>
       <c r="BQ52" s="25"/>
     </row>
     <row r="53" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="25"/>
       <c r="P53" s="25"/>
-      <c r="T53" s="79"/>
+      <c r="T53" s="98"/>
       <c r="U53" s="25"/>
       <c r="Z53" s="25"/>
       <c r="AE53" s="25"/>
-      <c r="AF53" s="77"/>
-      <c r="AG53" s="77"/>
-      <c r="AH53" s="77"/>
-      <c r="AI53" s="77"/>
-      <c r="AJ53" s="77"/>
-      <c r="AK53" s="77"/>
-      <c r="AL53" s="77"/>
-      <c r="AM53" s="77"/>
-      <c r="AN53" s="77"/>
-      <c r="AO53" s="77"/>
-      <c r="AP53" s="77"/>
-      <c r="AQ53" s="77"/>
-      <c r="AR53" s="77"/>
-      <c r="AS53" s="77"/>
-      <c r="AT53" s="77"/>
-      <c r="AU53" s="77"/>
-      <c r="AV53" s="77"/>
-      <c r="AW53" s="77"/>
-      <c r="AX53" s="77"/>
-      <c r="AY53" s="77"/>
-      <c r="AZ53" s="77"/>
-      <c r="BA53" s="77"/>
-      <c r="BB53" s="77"/>
-      <c r="BC53" s="77"/>
-      <c r="BD53" s="77"/>
-      <c r="BE53" s="77"/>
-      <c r="BF53" s="77"/>
-      <c r="BG53" s="77"/>
-      <c r="BH53" s="77"/>
-      <c r="BI53" s="77"/>
-      <c r="BJ53" s="77"/>
-      <c r="BK53" s="77"/>
+      <c r="AF53" s="96"/>
+      <c r="AG53" s="96"/>
+      <c r="AH53" s="96"/>
+      <c r="AI53" s="96"/>
+      <c r="AJ53" s="96"/>
+      <c r="AK53" s="96"/>
+      <c r="AL53" s="96"/>
+      <c r="AM53" s="96"/>
+      <c r="AN53" s="96"/>
+      <c r="AO53" s="96"/>
+      <c r="AP53" s="96"/>
+      <c r="AQ53" s="96"/>
+      <c r="AR53" s="96"/>
+      <c r="AS53" s="96"/>
+      <c r="AT53" s="96"/>
+      <c r="AU53" s="96"/>
+      <c r="AV53" s="96"/>
+      <c r="AW53" s="96"/>
+      <c r="AX53" s="96"/>
+      <c r="AY53" s="96"/>
+      <c r="AZ53" s="96"/>
+      <c r="BA53" s="96"/>
+      <c r="BB53" s="96"/>
+      <c r="BC53" s="96"/>
+      <c r="BD53" s="96"/>
+      <c r="BE53" s="96"/>
+      <c r="BF53" s="96"/>
+      <c r="BG53" s="96"/>
+      <c r="BH53" s="96"/>
+      <c r="BI53" s="96"/>
+      <c r="BJ53" s="96"/>
+      <c r="BK53" s="96"/>
       <c r="BL53" s="25"/>
-      <c r="BM53" s="76">
+      <c r="BM53" s="95">
         <v>2</v>
       </c>
       <c r="BQ53" s="25"/>
@@ -20018,46 +19826,46 @@
       <c r="U54" s="25"/>
       <c r="Z54" s="25"/>
       <c r="AE54" s="25"/>
-      <c r="AF54" s="77"/>
-      <c r="AG54" s="77"/>
-      <c r="AH54" s="77"/>
-      <c r="AI54" s="77"/>
-      <c r="AJ54" s="77"/>
-      <c r="AK54" s="77"/>
-      <c r="AL54" s="77"/>
-      <c r="AM54" s="77"/>
-      <c r="AN54" s="77"/>
-      <c r="AO54" s="77"/>
-      <c r="AP54" s="77"/>
-      <c r="AQ54" s="77"/>
-      <c r="AR54" s="77"/>
-      <c r="AS54" s="77"/>
-      <c r="AT54" s="77"/>
-      <c r="AU54" s="77"/>
-      <c r="AV54" s="77"/>
-      <c r="AW54" s="77"/>
-      <c r="AX54" s="77"/>
-      <c r="AY54" s="77"/>
-      <c r="AZ54" s="77"/>
-      <c r="BA54" s="77"/>
-      <c r="BB54" s="77"/>
-      <c r="BC54" s="77"/>
-      <c r="BD54" s="77"/>
-      <c r="BE54" s="77"/>
-      <c r="BF54" s="77"/>
-      <c r="BG54" s="77"/>
-      <c r="BH54" s="77"/>
-      <c r="BI54" s="77"/>
-      <c r="BJ54" s="77"/>
-      <c r="BK54" s="77"/>
+      <c r="AF54" s="96"/>
+      <c r="AG54" s="96"/>
+      <c r="AH54" s="96"/>
+      <c r="AI54" s="96"/>
+      <c r="AJ54" s="96"/>
+      <c r="AK54" s="96"/>
+      <c r="AL54" s="96"/>
+      <c r="AM54" s="96"/>
+      <c r="AN54" s="96"/>
+      <c r="AO54" s="96"/>
+      <c r="AP54" s="96"/>
+      <c r="AQ54" s="96"/>
+      <c r="AR54" s="96"/>
+      <c r="AS54" s="96"/>
+      <c r="AT54" s="96"/>
+      <c r="AU54" s="96"/>
+      <c r="AV54" s="96"/>
+      <c r="AW54" s="96"/>
+      <c r="AX54" s="96"/>
+      <c r="AY54" s="96"/>
+      <c r="AZ54" s="96"/>
+      <c r="BA54" s="96"/>
+      <c r="BB54" s="96"/>
+      <c r="BC54" s="96"/>
+      <c r="BD54" s="96"/>
+      <c r="BE54" s="96"/>
+      <c r="BF54" s="96"/>
+      <c r="BG54" s="96"/>
+      <c r="BH54" s="96"/>
+      <c r="BI54" s="96"/>
+      <c r="BJ54" s="96"/>
+      <c r="BK54" s="96"/>
       <c r="BL54" s="25"/>
-      <c r="BM54" s="76"/>
+      <c r="BM54" s="95"/>
       <c r="BQ54" s="25"/>
     </row>
     <row r="55" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="25"/>
       <c r="P55" s="25"/>
-      <c r="Q55" s="79">
+      <c r="Q55" s="98">
         <v>2</v>
       </c>
       <c r="U55" s="25"/>
@@ -20096,21 +19904,21 @@
       <c r="BJ55" s="25"/>
       <c r="BK55" s="25"/>
       <c r="BL55" s="25"/>
-      <c r="BM55" s="76"/>
+      <c r="BM55" s="95"/>
       <c r="BQ55" s="25"/>
     </row>
     <row r="56" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="25"/>
       <c r="P56" s="25"/>
-      <c r="Q56" s="79"/>
+      <c r="Q56" s="98"/>
       <c r="U56" s="25"/>
       <c r="Z56" s="25"/>
       <c r="AE56" s="28"/>
-      <c r="AW56" s="76">
+      <c r="AW56" s="95">
         <v>2</v>
       </c>
-      <c r="AX56" s="76"/>
-      <c r="AY56" s="76"/>
+      <c r="AX56" s="95"/>
+      <c r="AY56" s="95"/>
       <c r="BQ56" s="25"/>
     </row>
     <row r="57" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -20140,16 +19948,16 @@
       <c r="P59" s="25"/>
       <c r="U59" s="25"/>
       <c r="Z59" s="25"/>
-      <c r="AM59" s="78">
+      <c r="AM59" s="97">
         <v>5</v>
       </c>
-      <c r="AN59" s="78"/>
-      <c r="BM59" s="75">
+      <c r="AN59" s="97"/>
+      <c r="BM59" s="94">
         <v>2</v>
       </c>
-      <c r="BN59" s="75"/>
-      <c r="BO59" s="75"/>
-      <c r="BP59" s="75"/>
+      <c r="BN59" s="94"/>
+      <c r="BO59" s="94"/>
+      <c r="BP59" s="94"/>
       <c r="BQ59" s="25"/>
     </row>
     <row r="60" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -20157,48 +19965,48 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="P60" s="25"/>
-      <c r="Q60" s="79">
+      <c r="Q60" s="98">
         <v>2</v>
       </c>
       <c r="U60" s="25"/>
       <c r="Z60" s="25"/>
-      <c r="AM60" s="78"/>
-      <c r="AN60" s="78"/>
-      <c r="BM60" s="75"/>
-      <c r="BN60" s="75"/>
-      <c r="BO60" s="75"/>
-      <c r="BP60" s="75"/>
+      <c r="AM60" s="97"/>
+      <c r="AN60" s="97"/>
+      <c r="BM60" s="94"/>
+      <c r="BN60" s="94"/>
+      <c r="BO60" s="94"/>
+      <c r="BP60" s="94"/>
       <c r="BQ60" s="25"/>
     </row>
     <row r="61" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="25"/>
-      <c r="D61" s="73">
+      <c r="D61" s="91">
         <v>1</v>
       </c>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="73">
+      <c r="K61" s="91">
         <v>1</v>
       </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="73"/>
-      <c r="O61" s="73"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
       <c r="P61" s="25"/>
-      <c r="Q61" s="79"/>
+      <c r="Q61" s="98"/>
       <c r="U61" s="25"/>
-      <c r="V61" s="73">
+      <c r="V61" s="91">
         <v>1</v>
       </c>
-      <c r="W61" s="73"/>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
+      <c r="W61" s="91"/>
+      <c r="X61" s="91"/>
+      <c r="Y61" s="91"/>
       <c r="Z61" s="25"/>
-      <c r="AW61" s="76">
+      <c r="AW61" s="95">
         <v>2</v>
       </c>
       <c r="AX61" s="25"/>
@@ -20224,32 +20032,32 @@
     </row>
     <row r="62" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="25"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91"/>
+      <c r="N62" s="91"/>
+      <c r="O62" s="91"/>
       <c r="P62" s="25"/>
       <c r="U62" s="25"/>
-      <c r="V62" s="73"/>
-      <c r="W62" s="73"/>
-      <c r="X62" s="73"/>
-      <c r="Y62" s="73"/>
+      <c r="V62" s="91"/>
+      <c r="W62" s="91"/>
+      <c r="X62" s="91"/>
+      <c r="Y62" s="91"/>
       <c r="Z62" s="25"/>
-      <c r="AA62" s="78">
+      <c r="AA62" s="97">
         <v>2</v>
       </c>
-      <c r="AB62" s="78"/>
-      <c r="AC62" s="78"/>
-      <c r="AD62" s="78"/>
-      <c r="AW62" s="76"/>
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="97"/>
+      <c r="AD62" s="97"/>
+      <c r="AW62" s="95"/>
       <c r="AX62" s="25"/>
       <c r="AY62" s="25"/>
       <c r="AZ62" s="25"/>
@@ -20273,34 +20081,34 @@
     </row>
     <row r="63" spans="3:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="25"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
-      <c r="K63" s="73"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="91"/>
       <c r="P63" s="25"/>
       <c r="R63" s="29"/>
       <c r="S63" s="30"/>
       <c r="U63" s="25"/>
-      <c r="V63" s="73"/>
-      <c r="W63" s="73"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="73"/>
+      <c r="V63" s="91"/>
+      <c r="W63" s="91"/>
+      <c r="X63" s="91"/>
+      <c r="Y63" s="91"/>
       <c r="Z63" s="25"/>
-      <c r="AA63" s="78"/>
-      <c r="AB63" s="78"/>
-      <c r="AC63" s="78"/>
-      <c r="AD63" s="78"/>
+      <c r="AA63" s="97"/>
+      <c r="AB63" s="97"/>
+      <c r="AC63" s="97"/>
+      <c r="AD63" s="97"/>
       <c r="AF63" s="29"/>
       <c r="AG63" s="30"/>
-      <c r="AW63" s="76"/>
+      <c r="AW63" s="95"/>
       <c r="AX63" s="25"/>
       <c r="AY63" s="25"/>
       <c r="AZ63" s="25"/>
@@ -20472,55 +20280,55 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
-      <c r="AH2" s="58" t="s">
+      <c r="AH2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AW2" s="66" t="s">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AW2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="60" t="s">
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="61"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="79"/>
     </row>
     <row r="3" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
@@ -20566,49 +20374,49 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="16"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="63"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80"/>
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80"/>
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="80"/>
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="81"/>
     </row>
     <row r="4" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
@@ -20642,49 +20450,49 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="16"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="62"/>
-      <c r="BQ4" s="62"/>
-      <c r="BR4" s="62"/>
-      <c r="BS4" s="62"/>
-      <c r="BT4" s="62"/>
-      <c r="BU4" s="62"/>
-      <c r="BV4" s="62"/>
-      <c r="BW4" s="62"/>
-      <c r="BX4" s="62"/>
-      <c r="BY4" s="63"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="80"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
+      <c r="BW4" s="80"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="81"/>
     </row>
     <row r="5" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
@@ -20740,49 +20548,49 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="16"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="62"/>
-      <c r="BX5" s="62"/>
-      <c r="BY5" s="63"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="80"/>
+      <c r="BN5" s="80"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="80"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="81"/>
     </row>
     <row r="6" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9"/>
@@ -20816,49 +20624,49 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="16"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64"/>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="65"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="82"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="82"/>
+      <c r="BK6" s="82"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="BR6" s="82"/>
+      <c r="BS6" s="82"/>
+      <c r="BT6" s="82"/>
+      <c r="BU6" s="82"/>
+      <c r="BV6" s="82"/>
+      <c r="BW6" s="82"/>
+      <c r="BX6" s="82"/>
+      <c r="BY6" s="83"/>
     </row>
     <row r="7" spans="2:77" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
@@ -21045,10 +20853,10 @@
       <c r="BG16" s="28"/>
       <c r="BH16" s="28"/>
       <c r="BI16" s="28"/>
-      <c r="BJ16" s="78">
+      <c r="BJ16" s="97">
         <v>5</v>
       </c>
-      <c r="BK16" s="78"/>
+      <c r="BK16" s="97"/>
       <c r="BL16" s="28"/>
       <c r="BM16" s="28"/>
       <c r="BN16" s="25"/>
@@ -21081,8 +20889,8 @@
       <c r="BG17" s="28"/>
       <c r="BH17" s="28"/>
       <c r="BI17" s="28"/>
-      <c r="BJ17" s="78"/>
-      <c r="BK17" s="78"/>
+      <c r="BJ17" s="97"/>
+      <c r="BK17" s="97"/>
       <c r="BL17" s="28"/>
       <c r="BM17" s="28"/>
       <c r="BN17" s="25"/>
@@ -21239,7 +21047,7 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="28"/>
-      <c r="X22" s="76">
+      <c r="X22" s="95">
         <v>2</v>
       </c>
       <c r="Y22" s="25"/>
@@ -21287,7 +21095,7 @@
       <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
       <c r="T23" s="26"/>
-      <c r="X23" s="76"/>
+      <c r="X23" s="95"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
@@ -21377,11 +21185,11 @@
     <row r="25" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P25" s="25"/>
       <c r="X25" s="51"/>
-      <c r="AA25" s="79">
+      <c r="AA25" s="98">
         <v>2</v>
       </c>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
       <c r="AI25" s="25"/>
       <c r="AJ25" s="25"/>
       <c r="AK25" s="25"/>
@@ -21539,13 +21347,13 @@
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="75">
+      <c r="X29" s="94">
         <v>1</v>
       </c>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
       <c r="AC29" s="25"/>
       <c r="AD29" s="25"/>
       <c r="AE29" s="25"/>
@@ -21592,11 +21400,11 @@
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
       <c r="W30" s="44"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
       <c r="AC30" s="44"/>
       <c r="AD30" s="25"/>
       <c r="AE30" s="25"/>
@@ -21691,7 +21499,7 @@
       <c r="AH32" s="25"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="25"/>
-      <c r="AT32" s="80">
+      <c r="AT32" s="99">
         <v>3</v>
       </c>
       <c r="AX32" s="25"/>
@@ -21720,7 +21528,7 @@
       <c r="AH33" s="25"/>
       <c r="AN33" s="25"/>
       <c r="AO33" s="25"/>
-      <c r="AT33" s="80"/>
+      <c r="AT33" s="99"/>
       <c r="AX33" s="25"/>
       <c r="AY33" s="25"/>
       <c r="AZ33" s="25"/>
@@ -21747,7 +21555,7 @@
       <c r="AI34" s="28"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="25"/>
-      <c r="AT34" s="80"/>
+      <c r="AT34" s="99"/>
       <c r="AX34" s="25"/>
       <c r="AY34" s="25"/>
       <c r="AZ34" s="25"/>
@@ -21771,7 +21579,7 @@
       <c r="AF35" s="25"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="25"/>
-      <c r="AT35" s="80"/>
+      <c r="AT35" s="99"/>
       <c r="AW35" s="25"/>
       <c r="AX35" s="25"/>
       <c r="AY35" s="25"/>
@@ -21794,13 +21602,13 @@
     <row r="36" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P36" s="25"/>
       <c r="AF36" s="25"/>
-      <c r="AG36" s="78">
+      <c r="AG36" s="97">
         <v>5</v>
       </c>
-      <c r="AH36" s="78"/>
+      <c r="AH36" s="97"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="25"/>
-      <c r="AT36" s="80"/>
+      <c r="AT36" s="99"/>
       <c r="AX36" s="25"/>
       <c r="AY36" s="25"/>
       <c r="AZ36" s="25"/>
@@ -21822,14 +21630,14 @@
     <row r="37" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P37" s="25"/>
       <c r="AF37" s="25"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="78"/>
+      <c r="AG37" s="97"/>
+      <c r="AH37" s="97"/>
       <c r="AL37" s="48">
         <v>3</v>
       </c>
       <c r="AN37" s="25"/>
       <c r="AO37" s="25"/>
-      <c r="AT37" s="80"/>
+      <c r="AT37" s="99"/>
       <c r="AX37" s="25"/>
       <c r="AY37" s="25"/>
       <c r="AZ37" s="25"/>
@@ -21877,10 +21685,10 @@
     </row>
     <row r="39" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P39" s="25"/>
-      <c r="Q39" s="79">
+      <c r="Q39" s="98">
         <v>2</v>
       </c>
-      <c r="R39" s="79"/>
+      <c r="R39" s="98"/>
       <c r="S39" s="29"/>
       <c r="T39" s="30"/>
       <c r="U39" s="49"/>
@@ -21913,12 +21721,12 @@
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
-      <c r="W40" s="83">
+      <c r="W40" s="101">
         <v>1</v>
       </c>
-      <c r="X40" s="83"/>
-      <c r="Y40" s="83"/>
-      <c r="Z40" s="83"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
       <c r="AC40" s="25"/>
@@ -21946,14 +21754,14 @@
     </row>
     <row r="41" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P41" s="25"/>
-      <c r="Q41" s="76">
+      <c r="Q41" s="95">
         <v>2</v>
       </c>
-      <c r="R41" s="79">
+      <c r="R41" s="98">
         <v>2</v>
       </c>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
+      <c r="S41" s="98"/>
+      <c r="T41" s="98"/>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
       <c r="AA41" s="25"/>
@@ -21962,10 +21770,10 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="25"/>
       <c r="AF41" s="25"/>
-      <c r="AI41" s="79">
+      <c r="AI41" s="98">
         <v>3</v>
       </c>
-      <c r="AJ41" s="79"/>
+      <c r="AJ41" s="98"/>
       <c r="AP41" s="25"/>
       <c r="AQ41" s="25"/>
       <c r="AT41" s="25"/>
@@ -21989,7 +21797,7 @@
     </row>
     <row r="42" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P42" s="25"/>
-      <c r="Q42" s="76"/>
+      <c r="Q42" s="95"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="AA42" s="25"/>
@@ -21998,10 +21806,10 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="25"/>
       <c r="AF42" s="25"/>
-      <c r="AL42" s="79">
+      <c r="AL42" s="98">
         <v>3</v>
       </c>
-      <c r="AM42" s="79"/>
+      <c r="AM42" s="98"/>
       <c r="AT42" s="25"/>
       <c r="AX42" s="25"/>
       <c r="AY42" s="25"/>
@@ -22023,7 +21831,7 @@
     </row>
     <row r="43" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P43" s="25"/>
-      <c r="Q43" s="76"/>
+      <c r="Q43" s="95"/>
       <c r="S43" s="28"/>
       <c r="T43" s="48">
         <v>2</v>
@@ -22038,8 +21846,8 @@
       <c r="AF43" s="25"/>
       <c r="AG43" s="25"/>
       <c r="AH43" s="25"/>
-      <c r="AO43" s="89"/>
-      <c r="AP43" s="89"/>
+      <c r="AO43" s="52"/>
+      <c r="AP43" s="52"/>
       <c r="AT43" s="25"/>
       <c r="AX43" s="25"/>
       <c r="AY43" s="25"/>
@@ -22061,15 +21869,15 @@
     </row>
     <row r="44" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P44" s="25"/>
-      <c r="Q44" s="76"/>
+      <c r="Q44" s="95"/>
       <c r="S44" s="28"/>
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
-      <c r="AA44" s="80">
+      <c r="AA44" s="99">
         <v>2</v>
       </c>
-      <c r="AD44" s="82">
+      <c r="AD44" s="102">
         <v>2</v>
       </c>
       <c r="AE44" s="25"/>
@@ -22099,9 +21907,9 @@
     </row>
     <row r="45" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P45" s="25"/>
-      <c r="Q45" s="76"/>
-      <c r="AA45" s="80"/>
-      <c r="AD45" s="82"/>
+      <c r="Q45" s="95"/>
+      <c r="AA45" s="99"/>
+      <c r="AD45" s="102"/>
       <c r="AE45" s="25"/>
       <c r="AF45" s="25"/>
       <c r="AG45" s="25"/>
@@ -22129,9 +21937,9 @@
     </row>
     <row r="46" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P46" s="25"/>
-      <c r="Q46" s="76"/>
-      <c r="AA46" s="80"/>
-      <c r="AD46" s="82"/>
+      <c r="Q46" s="95"/>
+      <c r="AA46" s="99"/>
+      <c r="AD46" s="102"/>
       <c r="AE46" s="25"/>
       <c r="AF46" s="25"/>
       <c r="AG46" s="25"/>
@@ -22160,27 +21968,27 @@
     </row>
     <row r="47" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P47" s="25"/>
-      <c r="Q47" s="76"/>
-      <c r="AA47" s="80"/>
-      <c r="AD47" s="82"/>
+      <c r="Q47" s="95"/>
+      <c r="AA47" s="99"/>
+      <c r="AD47" s="102"/>
       <c r="AE47" s="25"/>
       <c r="AF47" s="25"/>
       <c r="AG47" s="25"/>
       <c r="AH47" s="25"/>
-      <c r="AI47" s="79">
+      <c r="AI47" s="98">
         <v>1</v>
       </c>
-      <c r="AJ47" s="79"/>
+      <c r="AJ47" s="98"/>
       <c r="AK47" s="25"/>
-      <c r="AL47" s="79">
+      <c r="AL47" s="98">
         <v>1</v>
       </c>
-      <c r="AM47" s="79"/>
+      <c r="AM47" s="98"/>
       <c r="AN47" s="25"/>
-      <c r="AO47" s="79">
+      <c r="AO47" s="98">
         <v>1</v>
       </c>
-      <c r="AP47" s="79"/>
+      <c r="AP47" s="98"/>
       <c r="AQ47" s="25"/>
       <c r="AT47" s="25"/>
       <c r="AX47" s="25"/>
@@ -22203,23 +22011,23 @@
     </row>
     <row r="48" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P48" s="25"/>
-      <c r="Q48" s="76"/>
+      <c r="Q48" s="95"/>
       <c r="R48" s="25"/>
       <c r="S48" s="25"/>
-      <c r="AA48" s="80"/>
-      <c r="AD48" s="82"/>
+      <c r="AA48" s="99"/>
+      <c r="AD48" s="102"/>
       <c r="AE48" s="25"/>
       <c r="AF48" s="25"/>
       <c r="AG48" s="25"/>
       <c r="AH48" s="25"/>
-      <c r="AI48" s="79"/>
-      <c r="AJ48" s="79"/>
+      <c r="AI48" s="98"/>
+      <c r="AJ48" s="98"/>
       <c r="AK48" s="25"/>
-      <c r="AL48" s="79"/>
-      <c r="AM48" s="79"/>
+      <c r="AL48" s="98"/>
+      <c r="AM48" s="98"/>
       <c r="AN48" s="25"/>
-      <c r="AO48" s="79"/>
-      <c r="AP48" s="79"/>
+      <c r="AO48" s="98"/>
+      <c r="AP48" s="98"/>
       <c r="AQ48" s="25"/>
       <c r="AT48" s="25"/>
       <c r="AX48" s="25"/>
@@ -22242,9 +22050,9 @@
     </row>
     <row r="49" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P49" s="25"/>
-      <c r="Q49" s="76"/>
-      <c r="AA49" s="80"/>
-      <c r="AD49" s="82"/>
+      <c r="Q49" s="95"/>
+      <c r="AA49" s="99"/>
+      <c r="AD49" s="102"/>
       <c r="AE49" s="25"/>
       <c r="AF49" s="25"/>
       <c r="AG49" s="25"/>
@@ -22279,15 +22087,15 @@
     </row>
     <row r="50" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P50" s="25"/>
-      <c r="Q50" s="76"/>
+      <c r="Q50" s="95"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
-      <c r="X50" s="78">
+      <c r="X50" s="97">
         <v>4</v>
       </c>
-      <c r="Y50" s="78"/>
+      <c r="Y50" s="97"/>
       <c r="AA50" s="25"/>
-      <c r="AD50" s="82"/>
+      <c r="AD50" s="102"/>
       <c r="AE50" s="25"/>
       <c r="AF50" s="25"/>
       <c r="AG50" s="25"/>
@@ -22301,10 +22109,10 @@
       <c r="AO50" s="25"/>
       <c r="AP50" s="25"/>
       <c r="AQ50" s="25"/>
-      <c r="AR50" s="78">
+      <c r="AR50" s="97">
         <v>5</v>
       </c>
-      <c r="AS50" s="78"/>
+      <c r="AS50" s="97"/>
       <c r="AT50" s="25"/>
       <c r="AX50" s="25"/>
       <c r="AY50" s="25"/>
@@ -22326,11 +22134,11 @@
     </row>
     <row r="51" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P51" s="25"/>
-      <c r="Q51" s="76"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
+      <c r="Q51" s="95"/>
+      <c r="X51" s="97"/>
+      <c r="Y51" s="97"/>
       <c r="AA51" s="25"/>
-      <c r="AD51" s="82"/>
+      <c r="AD51" s="102"/>
       <c r="AE51" s="25"/>
       <c r="AF51" s="25"/>
       <c r="AG51" s="25"/>
@@ -22344,37 +22152,37 @@
       <c r="AO51" s="25"/>
       <c r="AP51" s="25"/>
       <c r="AQ51" s="25"/>
-      <c r="AR51" s="78"/>
-      <c r="AS51" s="78"/>
+      <c r="AR51" s="97"/>
+      <c r="AS51" s="97"/>
       <c r="AT51" s="25"/>
-      <c r="AX51" s="79">
+      <c r="AX51" s="98">
         <v>2</v>
       </c>
-      <c r="AY51" s="79"/>
-      <c r="AZ51" s="79"/>
-      <c r="BA51" s="79"/>
-      <c r="BB51" s="79"/>
-      <c r="BC51" s="79"/>
-      <c r="BD51" s="79"/>
-      <c r="BE51" s="79"/>
-      <c r="BF51" s="79"/>
-      <c r="BG51" s="79"/>
-      <c r="BH51" s="79"/>
-      <c r="BI51" s="80">
+      <c r="AY51" s="98"/>
+      <c r="AZ51" s="98"/>
+      <c r="BA51" s="98"/>
+      <c r="BB51" s="98"/>
+      <c r="BC51" s="98"/>
+      <c r="BD51" s="98"/>
+      <c r="BE51" s="98"/>
+      <c r="BF51" s="98"/>
+      <c r="BG51" s="98"/>
+      <c r="BH51" s="98"/>
+      <c r="BI51" s="99">
         <v>4</v>
       </c>
       <c r="BN51" s="25"/>
     </row>
     <row r="52" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P52" s="25"/>
-      <c r="Q52" s="76"/>
+      <c r="Q52" s="95"/>
       <c r="R52" s="49"/>
       <c r="AA52" s="25"/>
-      <c r="AD52" s="82"/>
+      <c r="AD52" s="102"/>
       <c r="AE52" s="25"/>
       <c r="AF52" s="25"/>
       <c r="AT52" s="25"/>
-      <c r="BI52" s="80"/>
+      <c r="BI52" s="99"/>
       <c r="BN52" s="25"/>
     </row>
     <row r="53" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -22390,17 +22198,17 @@
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
       <c r="AA53" s="25"/>
-      <c r="AD53" s="82"/>
+      <c r="AD53" s="102"/>
       <c r="AE53" s="25"/>
       <c r="AF53" s="25"/>
-      <c r="AI53" s="79">
+      <c r="AI53" s="98">
         <v>2</v>
       </c>
-      <c r="AJ53" s="79"/>
-      <c r="AM53" s="79">
+      <c r="AJ53" s="98"/>
+      <c r="AM53" s="98">
         <v>2</v>
       </c>
-      <c r="AN53" s="79"/>
+      <c r="AN53" s="98"/>
       <c r="AT53" s="25"/>
       <c r="AX53" s="25"/>
       <c r="AY53" s="25"/>
@@ -22410,7 +22218,7 @@
       <c r="BE53" s="28"/>
       <c r="BF53" s="25"/>
       <c r="BG53" s="25"/>
-      <c r="BI53" s="80"/>
+      <c r="BI53" s="99"/>
       <c r="BN53" s="25"/>
     </row>
     <row r="54" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -22426,7 +22234,7 @@
       <c r="Y54" s="25"/>
       <c r="Z54" s="25"/>
       <c r="AA54" s="25"/>
-      <c r="AD54" s="82"/>
+      <c r="AD54" s="102"/>
       <c r="AE54" s="25"/>
       <c r="AF54" s="25"/>
       <c r="AI54" s="25"/>
@@ -22434,7 +22242,7 @@
       <c r="AM54" s="25"/>
       <c r="AN54" s="25"/>
       <c r="AT54" s="25"/>
-      <c r="BI54" s="80"/>
+      <c r="BI54" s="99"/>
       <c r="BN54" s="25"/>
     </row>
     <row r="55" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -22453,20 +22261,20 @@
       <c r="AD55" s="50"/>
       <c r="AE55" s="28"/>
       <c r="AF55" s="28"/>
-      <c r="AG55" s="79">
+      <c r="AG55" s="98">
         <v>3</v>
       </c>
-      <c r="AH55" s="79"/>
-      <c r="AK55" s="79">
+      <c r="AH55" s="98"/>
+      <c r="AK55" s="98">
         <v>3</v>
       </c>
-      <c r="AL55" s="79"/>
-      <c r="AO55" s="79">
+      <c r="AL55" s="98"/>
+      <c r="AO55" s="98">
         <v>3</v>
       </c>
-      <c r="AP55" s="79"/>
+      <c r="AP55" s="98"/>
       <c r="AT55" s="25"/>
-      <c r="BI55" s="80"/>
+      <c r="BI55" s="99"/>
       <c r="BN55" s="25"/>
     </row>
     <row r="56" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -22486,7 +22294,7 @@
       <c r="AE56" s="28"/>
       <c r="AF56" s="28"/>
       <c r="AT56" s="25"/>
-      <c r="BI56" s="80"/>
+      <c r="BI56" s="99"/>
       <c r="BN56" s="25"/>
     </row>
     <row r="57" spans="16:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -22506,7 +22314,7 @@
       <c r="AE57" s="28"/>
       <c r="AF57" s="28"/>
       <c r="AT57" s="25"/>
-      <c r="BI57" s="80"/>
+      <c r="BI57" s="99"/>
       <c r="BK57" s="27"/>
       <c r="BL57" s="27"/>
       <c r="BN57" s="25"/>
@@ -22530,7 +22338,7 @@
       <c r="AQ58" s="30"/>
       <c r="AR58" s="29"/>
       <c r="AT58" s="25"/>
-      <c r="BI58" s="80"/>
+      <c r="BI58" s="99"/>
       <c r="BK58" s="27"/>
       <c r="BL58" s="27"/>
       <c r="BN58" s="25"/>
@@ -22555,22 +22363,22 @@
       <c r="AR59" s="25"/>
       <c r="AS59" s="25"/>
       <c r="AT59" s="25"/>
-      <c r="AU59" s="81">
+      <c r="AU59" s="100">
         <v>1</v>
       </c>
-      <c r="AV59" s="81"/>
-      <c r="AW59" s="81"/>
-      <c r="AX59" s="81"/>
-      <c r="AY59" s="81"/>
-      <c r="AZ59" s="81"/>
-      <c r="BA59" s="81"/>
-      <c r="BB59" s="81"/>
-      <c r="BC59" s="81"/>
-      <c r="BD59" s="81"/>
-      <c r="BE59" s="81"/>
-      <c r="BF59" s="81"/>
-      <c r="BG59" s="81"/>
-      <c r="BH59" s="81"/>
+      <c r="AV59" s="100"/>
+      <c r="AW59" s="100"/>
+      <c r="AX59" s="100"/>
+      <c r="AY59" s="100"/>
+      <c r="AZ59" s="100"/>
+      <c r="BA59" s="100"/>
+      <c r="BB59" s="100"/>
+      <c r="BC59" s="100"/>
+      <c r="BD59" s="100"/>
+      <c r="BE59" s="100"/>
+      <c r="BF59" s="100"/>
+      <c r="BG59" s="100"/>
+      <c r="BH59" s="100"/>
       <c r="BI59" s="25"/>
       <c r="BJ59" s="25"/>
       <c r="BK59" s="25"/>
@@ -22594,38 +22402,38 @@
       <c r="AB60" s="25"/>
       <c r="AC60" s="25"/>
       <c r="AD60" s="25"/>
-      <c r="AE60" s="75">
+      <c r="AE60" s="94">
         <v>1</v>
       </c>
-      <c r="AF60" s="75"/>
-      <c r="AG60" s="75"/>
-      <c r="AH60" s="75"/>
-      <c r="AI60" s="75"/>
-      <c r="AJ60" s="75"/>
-      <c r="AK60" s="75"/>
-      <c r="AL60" s="75"/>
-      <c r="AM60" s="75"/>
-      <c r="AN60" s="75"/>
-      <c r="AO60" s="75"/>
-      <c r="AP60" s="75"/>
+      <c r="AF60" s="94"/>
+      <c r="AG60" s="94"/>
+      <c r="AH60" s="94"/>
+      <c r="AI60" s="94"/>
+      <c r="AJ60" s="94"/>
+      <c r="AK60" s="94"/>
+      <c r="AL60" s="94"/>
+      <c r="AM60" s="94"/>
+      <c r="AN60" s="94"/>
+      <c r="AO60" s="94"/>
+      <c r="AP60" s="94"/>
       <c r="AQ60" s="25"/>
       <c r="AR60" s="25"/>
       <c r="AS60" s="25"/>
       <c r="AT60" s="25"/>
-      <c r="AU60" s="81"/>
-      <c r="AV60" s="81"/>
-      <c r="AW60" s="81"/>
-      <c r="AX60" s="81"/>
-      <c r="AY60" s="81"/>
-      <c r="AZ60" s="81"/>
-      <c r="BA60" s="81"/>
-      <c r="BB60" s="81"/>
-      <c r="BC60" s="81"/>
-      <c r="BD60" s="81"/>
-      <c r="BE60" s="81"/>
-      <c r="BF60" s="81"/>
-      <c r="BG60" s="81"/>
-      <c r="BH60" s="81"/>
+      <c r="AU60" s="100"/>
+      <c r="AV60" s="100"/>
+      <c r="AW60" s="100"/>
+      <c r="AX60" s="100"/>
+      <c r="AY60" s="100"/>
+      <c r="AZ60" s="100"/>
+      <c r="BA60" s="100"/>
+      <c r="BB60" s="100"/>
+      <c r="BC60" s="100"/>
+      <c r="BD60" s="100"/>
+      <c r="BE60" s="100"/>
+      <c r="BF60" s="100"/>
+      <c r="BG60" s="100"/>
+      <c r="BH60" s="100"/>
       <c r="BI60" s="25"/>
       <c r="BJ60" s="25"/>
       <c r="BK60" s="25"/>
@@ -22649,36 +22457,36 @@
       <c r="AB61" s="25"/>
       <c r="AC61" s="25"/>
       <c r="AD61" s="25"/>
-      <c r="AE61" s="75"/>
-      <c r="AF61" s="75"/>
-      <c r="AG61" s="75"/>
-      <c r="AH61" s="75"/>
-      <c r="AI61" s="75"/>
-      <c r="AJ61" s="75"/>
-      <c r="AK61" s="75"/>
-      <c r="AL61" s="75"/>
-      <c r="AM61" s="75"/>
-      <c r="AN61" s="75"/>
-      <c r="AO61" s="75"/>
-      <c r="AP61" s="75"/>
+      <c r="AE61" s="94"/>
+      <c r="AF61" s="94"/>
+      <c r="AG61" s="94"/>
+      <c r="AH61" s="94"/>
+      <c r="AI61" s="94"/>
+      <c r="AJ61" s="94"/>
+      <c r="AK61" s="94"/>
+      <c r="AL61" s="94"/>
+      <c r="AM61" s="94"/>
+      <c r="AN61" s="94"/>
+      <c r="AO61" s="94"/>
+      <c r="AP61" s="94"/>
       <c r="AQ61" s="25"/>
       <c r="AR61" s="25"/>
       <c r="AS61" s="25"/>
       <c r="AT61" s="25"/>
-      <c r="AU61" s="81"/>
-      <c r="AV61" s="81"/>
-      <c r="AW61" s="81"/>
-      <c r="AX61" s="81"/>
-      <c r="AY61" s="81"/>
-      <c r="AZ61" s="81"/>
-      <c r="BA61" s="81"/>
-      <c r="BB61" s="81"/>
-      <c r="BC61" s="81"/>
-      <c r="BD61" s="81"/>
-      <c r="BE61" s="81"/>
-      <c r="BF61" s="81"/>
-      <c r="BG61" s="81"/>
-      <c r="BH61" s="81"/>
+      <c r="AU61" s="100"/>
+      <c r="AV61" s="100"/>
+      <c r="AW61" s="100"/>
+      <c r="AX61" s="100"/>
+      <c r="AY61" s="100"/>
+      <c r="AZ61" s="100"/>
+      <c r="BA61" s="100"/>
+      <c r="BB61" s="100"/>
+      <c r="BC61" s="100"/>
+      <c r="BD61" s="100"/>
+      <c r="BE61" s="100"/>
+      <c r="BF61" s="100"/>
+      <c r="BG61" s="100"/>
+      <c r="BH61" s="100"/>
       <c r="BI61" s="25"/>
       <c r="BJ61" s="25"/>
       <c r="BK61" s="25"/>
@@ -22718,20 +22526,20 @@
       <c r="AR62" s="25"/>
       <c r="AS62" s="25"/>
       <c r="AT62" s="25"/>
-      <c r="AU62" s="81"/>
-      <c r="AV62" s="81"/>
-      <c r="AW62" s="81"/>
-      <c r="AX62" s="81"/>
-      <c r="AY62" s="81"/>
-      <c r="AZ62" s="81"/>
-      <c r="BA62" s="81"/>
-      <c r="BB62" s="81"/>
-      <c r="BC62" s="81"/>
-      <c r="BD62" s="81"/>
-      <c r="BE62" s="81"/>
-      <c r="BF62" s="81"/>
-      <c r="BG62" s="81"/>
-      <c r="BH62" s="81"/>
+      <c r="AU62" s="100"/>
+      <c r="AV62" s="100"/>
+      <c r="AW62" s="100"/>
+      <c r="AX62" s="100"/>
+      <c r="AY62" s="100"/>
+      <c r="AZ62" s="100"/>
+      <c r="BA62" s="100"/>
+      <c r="BB62" s="100"/>
+      <c r="BC62" s="100"/>
+      <c r="BD62" s="100"/>
+      <c r="BE62" s="100"/>
+      <c r="BF62" s="100"/>
+      <c r="BG62" s="100"/>
+      <c r="BH62" s="100"/>
       <c r="BI62" s="25"/>
       <c r="BJ62" s="25"/>
       <c r="BK62" s="25"/>
@@ -22837,8 +22645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CFA7A5-3BD2-4AC2-8B95-B920CF224376}">
   <dimension ref="B1:BY77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR46" sqref="BR46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22880,55 +22688,55 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
-      <c r="AH2" s="84" t="s">
+      <c r="AH2" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AW2" s="66" t="s">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AW2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="60" t="s">
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="61"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="79"/>
     </row>
     <row r="3" spans="2:77" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
@@ -22974,49 +22782,49 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="16"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="63"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80"/>
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80"/>
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="80"/>
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="81"/>
     </row>
     <row r="4" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
@@ -23050,49 +22858,49 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="16"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="62"/>
-      <c r="BQ4" s="62"/>
-      <c r="BR4" s="62"/>
-      <c r="BS4" s="62"/>
-      <c r="BT4" s="62"/>
-      <c r="BU4" s="62"/>
-      <c r="BV4" s="62"/>
-      <c r="BW4" s="62"/>
-      <c r="BX4" s="62"/>
-      <c r="BY4" s="63"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="80"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
+      <c r="BW4" s="80"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="81"/>
     </row>
     <row r="5" spans="2:77" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
@@ -23148,49 +22956,49 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="16"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="62"/>
-      <c r="BX5" s="62"/>
-      <c r="BY5" s="63"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="80"/>
+      <c r="BN5" s="80"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="80"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="81"/>
     </row>
     <row r="6" spans="2:77" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9"/>
@@ -23224,49 +23032,49 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="16"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64"/>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="65"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="82"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="82"/>
+      <c r="BK6" s="82"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="BR6" s="82"/>
+      <c r="BS6" s="82"/>
+      <c r="BT6" s="82"/>
+      <c r="BU6" s="82"/>
+      <c r="BV6" s="82"/>
+      <c r="BW6" s="82"/>
+      <c r="BX6" s="82"/>
+      <c r="BY6" s="83"/>
     </row>
     <row r="7" spans="2:77" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
@@ -23392,33 +23200,33 @@
     </row>
     <row r="14" spans="2:77" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O14" s="25"/>
-      <c r="AH14" s="90">
+      <c r="AH14" s="93">
         <v>2</v>
       </c>
-      <c r="AI14" s="90"/>
+      <c r="AI14" s="93"/>
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
       <c r="AL14" s="25"/>
       <c r="AM14" s="25"/>
       <c r="AN14" s="25"/>
-      <c r="BI14" s="102"/>
-      <c r="BJ14" s="102"/>
-      <c r="BK14" s="102"/>
+      <c r="BI14" s="55"/>
+      <c r="BJ14" s="55"/>
+      <c r="BK14" s="55"/>
       <c r="BL14" s="25"/>
     </row>
     <row r="15" spans="2:77" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O15" s="25"/>
-      <c r="AD15" s="90">
+      <c r="AD15" s="93">
         <v>3</v>
       </c>
-      <c r="AE15" s="90"/>
+      <c r="AE15" s="93"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="25"/>
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="25"/>
-      <c r="AO15" s="108"/>
-      <c r="AP15" s="108"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
       <c r="BL15" s="25"/>
     </row>
     <row r="16" spans="2:77" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23431,16 +23239,16 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
       <c r="AG16" s="28"/>
       <c r="AJ16" s="25"/>
       <c r="AK16" s="25"/>
       <c r="AL16" s="25"/>
       <c r="AM16" s="25"/>
       <c r="AN16" s="25"/>
-      <c r="AO16" s="108"/>
-      <c r="AP16" s="108"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
       <c r="BL16" s="25"/>
     </row>
     <row r="17" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23473,12 +23281,12 @@
       <c r="BE17" s="25"/>
       <c r="BF17" s="25"/>
       <c r="BG17" s="25"/>
-      <c r="BH17" s="92">
+      <c r="BH17" s="105">
         <v>6</v>
       </c>
-      <c r="BI17" s="92"/>
-      <c r="BJ17" s="92"/>
-      <c r="BK17" s="92"/>
+      <c r="BI17" s="105"/>
+      <c r="BJ17" s="105"/>
+      <c r="BK17" s="105"/>
       <c r="BL17" s="25"/>
     </row>
     <row r="18" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23489,106 +23297,106 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
-      <c r="W18" s="90">
+      <c r="W18" s="93">
         <v>5</v>
       </c>
-      <c r="X18" s="90"/>
+      <c r="X18" s="93"/>
       <c r="AB18" s="25"/>
-      <c r="AC18" s="90">
+      <c r="AC18" s="93">
         <v>1</v>
       </c>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
       <c r="AG18" s="25"/>
       <c r="AJ18" s="25"/>
       <c r="AK18" s="25"/>
       <c r="AL18" s="25"/>
       <c r="AM18" s="25"/>
       <c r="AN18" s="25"/>
-      <c r="AO18" s="90">
+      <c r="AO18" s="93">
         <v>2</v>
       </c>
-      <c r="AP18" s="90">
+      <c r="AP18" s="93">
         <v>2</v>
       </c>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="90"/>
-      <c r="AU18" s="90"/>
-      <c r="AV18" s="90"/>
-      <c r="AW18" s="90"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="90"/>
-      <c r="BA18" s="90"/>
-      <c r="BB18" s="90"/>
-      <c r="BC18" s="90"/>
-      <c r="BD18" s="90"/>
-      <c r="BE18" s="90"/>
-      <c r="BF18" s="90"/>
-      <c r="BG18" s="90"/>
-      <c r="BK18" s="90">
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="93"/>
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="93"/>
+      <c r="BK18" s="93">
         <v>2</v>
       </c>
       <c r="BL18" s="25"/>
     </row>
     <row r="19" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O19" s="25"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
       <c r="AB19" s="25"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
       <c r="AG19" s="25"/>
       <c r="AJ19" s="25"/>
       <c r="AK19" s="25"/>
       <c r="AL19" s="25"/>
       <c r="AM19" s="25"/>
       <c r="AN19" s="25"/>
-      <c r="AO19" s="90"/>
-      <c r="BK19" s="90"/>
+      <c r="AO19" s="93"/>
+      <c r="BK19" s="93"/>
       <c r="BL19" s="25"/>
     </row>
     <row r="20" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M20" s="28"/>
       <c r="O20" s="25"/>
-      <c r="P20" s="91">
+      <c r="P20" s="53">
         <v>1</v>
       </c>
       <c r="R20" s="45"/>
       <c r="AB20" s="25"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
       <c r="AG20" s="25"/>
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
       <c r="AL20" s="25"/>
       <c r="AM20" s="25"/>
       <c r="AN20" s="25"/>
-      <c r="AO20" s="90"/>
-      <c r="AR20" s="90">
+      <c r="AO20" s="93"/>
+      <c r="AR20" s="93">
         <v>5</v>
       </c>
-      <c r="AS20" s="90"/>
+      <c r="AS20" s="93"/>
       <c r="AU20" s="25"/>
       <c r="AV20" s="25"/>
       <c r="AW20" s="25"/>
       <c r="BC20" s="25"/>
       <c r="BD20" s="25"/>
       <c r="BE20" s="25"/>
-      <c r="BG20" s="90">
+      <c r="BG20" s="93">
         <v>5</v>
       </c>
-      <c r="BH20" s="90"/>
+      <c r="BH20" s="93"/>
       <c r="BI20" s="25"/>
       <c r="BJ20" s="25"/>
-      <c r="BK20" s="90"/>
+      <c r="BK20" s="93"/>
       <c r="BL20" s="25"/>
     </row>
     <row r="21" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23607,31 +23415,31 @@
       <c r="AL21" s="25"/>
       <c r="AM21" s="25"/>
       <c r="AN21" s="25"/>
-      <c r="AO21" s="90"/>
-      <c r="AR21" s="90"/>
-      <c r="AS21" s="90"/>
-      <c r="BG21" s="90"/>
-      <c r="BH21" s="90"/>
-      <c r="BK21" s="90"/>
+      <c r="AO21" s="93"/>
+      <c r="AR21" s="93"/>
+      <c r="AS21" s="93"/>
+      <c r="BG21" s="93"/>
+      <c r="BH21" s="93"/>
+      <c r="BK21" s="93"/>
       <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O22" s="25"/>
-      <c r="AB22" s="90">
+      <c r="AB22" s="93">
         <v>2</v>
       </c>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
       <c r="AL22" s="25"/>
       <c r="AM22" s="25"/>
       <c r="AN22" s="25"/>
-      <c r="AO22" s="90"/>
+      <c r="AO22" s="93"/>
       <c r="AY22" s="25"/>
       <c r="AZ22" s="25"/>
       <c r="BA22" s="25"/>
-      <c r="BK22" s="90"/>
+      <c r="BK22" s="93"/>
       <c r="BL22" s="25"/>
     </row>
     <row r="23" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23642,37 +23450,37 @@
       <c r="AL23" s="25"/>
       <c r="AM23" s="25"/>
       <c r="AN23" s="25"/>
-      <c r="AO23" s="90"/>
+      <c r="AO23" s="93"/>
       <c r="AS23" s="25"/>
       <c r="AT23" s="25"/>
       <c r="AU23" s="25"/>
       <c r="BD23" s="25"/>
       <c r="BE23" s="25"/>
       <c r="BF23" s="25"/>
-      <c r="BK23" s="90"/>
+      <c r="BK23" s="93"/>
       <c r="BL23" s="25"/>
     </row>
     <row r="24" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O24" s="25"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="104"/>
-      <c r="Z24" s="78">
+      <c r="T24" s="57"/>
+      <c r="Z24" s="97">
         <v>4</v>
       </c>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="78"/>
+      <c r="AA24" s="97"/>
+      <c r="AB24" s="97"/>
       <c r="AJ24" s="25"/>
       <c r="AK24" s="25"/>
       <c r="AL24" s="25"/>
       <c r="AM24" s="25"/>
       <c r="AN24" s="25"/>
-      <c r="AO24" s="90"/>
-      <c r="AY24" s="78">
+      <c r="AO24" s="93"/>
+      <c r="AY24" s="97">
         <v>4</v>
       </c>
-      <c r="AZ24" s="78"/>
-      <c r="BA24" s="78"/>
-      <c r="BK24" s="90"/>
+      <c r="AZ24" s="97"/>
+      <c r="BA24" s="97"/>
+      <c r="BK24" s="93"/>
       <c r="BL24" s="25"/>
     </row>
     <row r="25" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23680,19 +23488,19 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="97"/>
       <c r="AJ25" s="25"/>
       <c r="AK25" s="25"/>
       <c r="AL25" s="25"/>
       <c r="AM25" s="25"/>
       <c r="AN25" s="25"/>
-      <c r="AO25" s="90"/>
-      <c r="AY25" s="78"/>
-      <c r="AZ25" s="78"/>
-      <c r="BA25" s="78"/>
-      <c r="BK25" s="90"/>
+      <c r="AO25" s="93"/>
+      <c r="AY25" s="97"/>
+      <c r="AZ25" s="97"/>
+      <c r="BA25" s="97"/>
+      <c r="BK25" s="93"/>
       <c r="BL25" s="25"/>
     </row>
     <row r="26" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23700,25 +23508,25 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
       <c r="AJ26" s="25"/>
       <c r="AK26" s="25"/>
       <c r="AL26" s="25"/>
       <c r="AM26" s="25"/>
       <c r="AN26" s="25"/>
-      <c r="AO26" s="90"/>
+      <c r="AO26" s="93"/>
       <c r="AU26" s="25"/>
       <c r="AV26" s="25"/>
       <c r="AW26" s="25"/>
-      <c r="AY26" s="78"/>
-      <c r="AZ26" s="78"/>
-      <c r="BA26" s="78"/>
+      <c r="AY26" s="97"/>
+      <c r="AZ26" s="97"/>
+      <c r="BA26" s="97"/>
       <c r="BC26" s="25"/>
       <c r="BD26" s="25"/>
       <c r="BE26" s="25"/>
-      <c r="BK26" s="90"/>
+      <c r="BK26" s="93"/>
       <c r="BL26" s="25"/>
     </row>
     <row r="27" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23732,17 +23540,17 @@
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="AF27" s="13"/>
-      <c r="AH27" s="90">
+      <c r="AH27" s="93">
         <v>2</v>
       </c>
-      <c r="AI27" s="90"/>
+      <c r="AI27" s="93"/>
       <c r="AJ27" s="25"/>
       <c r="AK27" s="25"/>
       <c r="AL27" s="25"/>
       <c r="AM27" s="25"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="90"/>
-      <c r="BK27" s="90"/>
+      <c r="AO27" s="93"/>
+      <c r="BK27" s="93"/>
       <c r="BL27" s="25"/>
       <c r="BM27" s="25"/>
       <c r="BN27" s="25"/>
@@ -23752,13 +23560,13 @@
     </row>
     <row r="28" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J28" s="25"/>
-      <c r="K28" s="90">
+      <c r="K28" s="93">
         <v>2</v>
       </c>
-      <c r="L28" s="90"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="94">
+      <c r="L28" s="93"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="106">
         <v>1</v>
       </c>
       <c r="R28" s="25"/>
@@ -23784,69 +23592,57 @@
       <c r="AL28" s="25"/>
       <c r="AM28" s="25"/>
       <c r="AN28" s="25"/>
-      <c r="AO28" s="90"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="BG28" s="25"/>
-      <c r="BH28" s="25"/>
+      <c r="AO28" s="93"/>
       <c r="BL28" s="28"/>
-      <c r="BN28" s="102"/>
-      <c r="BO28" s="90">
+      <c r="BN28" s="55"/>
+      <c r="BO28" s="93">
         <v>2</v>
       </c>
-      <c r="BP28" s="90"/>
+      <c r="BP28" s="93"/>
       <c r="BQ28" s="25"/>
     </row>
     <row r="29" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J29" s="25"/>
-      <c r="O29" s="94"/>
-      <c r="S29" s="90">
+      <c r="O29" s="106"/>
+      <c r="S29" s="93">
         <v>2</v>
       </c>
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="90">
+      <c r="X29" s="93">
         <v>2</v>
       </c>
-      <c r="Y29" s="90">
+      <c r="Y29" s="93">
         <v>2</v>
       </c>
-      <c r="Z29" s="90"/>
+      <c r="Z29" s="93"/>
       <c r="AI29" s="25"/>
       <c r="AJ29" s="25"/>
       <c r="AK29" s="25"/>
       <c r="AL29" s="25"/>
       <c r="AM29" s="25"/>
       <c r="AN29" s="25"/>
-      <c r="AO29" s="90"/>
-      <c r="AR29" s="90">
-        <v>5</v>
-      </c>
-      <c r="AS29" s="90"/>
-      <c r="BG29" s="90">
-        <v>5</v>
-      </c>
-      <c r="BH29" s="90"/>
+      <c r="AO29" s="93"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="25"/>
+      <c r="BF29" s="25"/>
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="25"/>
       <c r="BL29" s="28"/>
       <c r="BQ29" s="25"/>
     </row>
     <row r="30" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J30" s="25"/>
-      <c r="K30" s="17">
-        <v>3</v>
-      </c>
-      <c r="N30" s="17">
-        <v>3</v>
-      </c>
-      <c r="O30" s="94"/>
-      <c r="S30" s="90"/>
+      <c r="O30" s="106"/>
+      <c r="S30" s="93"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
-      <c r="X30" s="90"/>
+      <c r="X30" s="93"/>
       <c r="AG30" s="17">
         <v>5</v>
       </c>
@@ -23856,32 +23652,22 @@
       <c r="AL30" s="25"/>
       <c r="AM30" s="25"/>
       <c r="AN30" s="25"/>
-      <c r="AO30" s="90"/>
-      <c r="AR30" s="90"/>
-      <c r="AS30" s="90"/>
+      <c r="AO30" s="93"/>
       <c r="AY30" s="25"/>
       <c r="AZ30" s="25"/>
       <c r="BA30" s="25"/>
-      <c r="BG30" s="90"/>
-      <c r="BH30" s="90"/>
       <c r="BL30" s="28"/>
-      <c r="BM30" s="17">
-        <v>3</v>
-      </c>
-      <c r="BP30" s="17">
-        <v>3</v>
-      </c>
       <c r="BQ30" s="25"/>
     </row>
     <row r="31" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J31" s="25"/>
-      <c r="O31" s="94"/>
-      <c r="S31" s="90"/>
+      <c r="O31" s="106"/>
+      <c r="S31" s="93"/>
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
-      <c r="X31" s="90"/>
+      <c r="X31" s="93"/>
       <c r="Y31" s="28"/>
       <c r="Z31" s="28"/>
       <c r="AA31" s="28"/>
@@ -23896,19 +23682,27 @@
       <c r="AL31" s="25"/>
       <c r="AM31" s="25"/>
       <c r="AN31" s="25"/>
-      <c r="AO31" s="90"/>
+      <c r="AO31" s="93"/>
+      <c r="AR31" s="93">
+        <v>5</v>
+      </c>
+      <c r="AS31" s="93"/>
+      <c r="BG31" s="93">
+        <v>5</v>
+      </c>
+      <c r="BH31" s="93"/>
       <c r="BL31" s="28"/>
       <c r="BQ31" s="25"/>
     </row>
     <row r="32" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J32" s="25"/>
-      <c r="O32" s="94"/>
-      <c r="S32" s="90"/>
+      <c r="O32" s="106"/>
+      <c r="S32" s="93"/>
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
-      <c r="X32" s="90"/>
+      <c r="X32" s="93"/>
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
       <c r="AC32" s="25"/>
@@ -23921,19 +23715,24 @@
       <c r="AL32" s="25"/>
       <c r="AM32" s="25"/>
       <c r="AN32" s="25"/>
-      <c r="AO32" s="90"/>
+      <c r="AO32" s="93"/>
+      <c r="AR32" s="93"/>
+      <c r="AS32" s="93"/>
+      <c r="AZ32" s="12"/>
+      <c r="BG32" s="93"/>
+      <c r="BH32" s="93"/>
       <c r="BL32" s="28"/>
       <c r="BQ32" s="25"/>
     </row>
     <row r="33" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J33" s="25"/>
       <c r="O33" s="25"/>
-      <c r="S33" s="90"/>
+      <c r="S33" s="93"/>
       <c r="T33" s="25"/>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
-      <c r="X33" s="90"/>
+      <c r="X33" s="93"/>
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
       <c r="AC33" s="25"/>
@@ -23946,7 +23745,7 @@
       <c r="AL33" s="25"/>
       <c r="AM33" s="25"/>
       <c r="AN33" s="25"/>
-      <c r="AO33" s="90"/>
+      <c r="AO33" s="93"/>
       <c r="AP33" s="28"/>
       <c r="AQ33" s="28"/>
       <c r="AR33" s="25"/>
@@ -23975,13 +23774,13 @@
     <row r="34" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="25"/>
       <c r="O34" s="25"/>
-      <c r="S34" s="90"/>
+      <c r="S34" s="93"/>
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
-      <c r="X34" s="90"/>
-      <c r="AD34" s="90">
+      <c r="X34" s="93"/>
+      <c r="AD34" s="93">
         <v>2</v>
       </c>
       <c r="AE34" s="25"/>
@@ -23992,7 +23791,7 @@
       <c r="AL34" s="25"/>
       <c r="AM34" s="25"/>
       <c r="AN34" s="25"/>
-      <c r="AO34" s="90"/>
+      <c r="AO34" s="93"/>
       <c r="AP34" s="28"/>
       <c r="AQ34" s="28"/>
       <c r="AR34" s="28"/>
@@ -24001,18 +23800,18 @@
     </row>
     <row r="35" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J35" s="25"/>
-      <c r="L35" s="91">
+      <c r="L35" s="53">
         <v>2</v>
       </c>
       <c r="M35" s="45"/>
       <c r="O35" s="25"/>
-      <c r="S35" s="90"/>
+      <c r="S35" s="93"/>
       <c r="T35" s="25"/>
       <c r="U35" s="25"/>
       <c r="V35" s="25"/>
       <c r="W35" s="25"/>
-      <c r="X35" s="90"/>
-      <c r="AD35" s="90"/>
+      <c r="X35" s="93"/>
+      <c r="AD35" s="93"/>
       <c r="AE35" s="25"/>
       <c r="AF35" s="25"/>
       <c r="AI35" s="25"/>
@@ -24021,12 +23820,12 @@
       <c r="AL35" s="25"/>
       <c r="AM35" s="25"/>
       <c r="AN35" s="25"/>
-      <c r="AO35" s="90"/>
-      <c r="AP35" s="102"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="55"/>
       <c r="AQ35" s="13"/>
       <c r="AR35" s="28"/>
       <c r="BL35" s="25"/>
-      <c r="BN35" s="91">
+      <c r="BN35" s="53">
         <v>6</v>
       </c>
       <c r="BO35" s="45"/>
@@ -24037,13 +23836,13 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="O36" s="25"/>
-      <c r="S36" s="90"/>
+      <c r="S36" s="93"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
-      <c r="X36" s="90"/>
-      <c r="AD36" s="90"/>
+      <c r="X36" s="93"/>
+      <c r="AD36" s="93"/>
       <c r="AE36" s="25"/>
       <c r="AF36" s="25"/>
       <c r="AI36" s="25"/>
@@ -24052,8 +23851,8 @@
       <c r="AL36" s="25"/>
       <c r="AM36" s="25"/>
       <c r="AN36" s="25"/>
-      <c r="AO36" s="90"/>
-      <c r="AP36" s="107"/>
+      <c r="AO36" s="93"/>
+      <c r="AP36" s="59"/>
       <c r="AQ36" s="25"/>
       <c r="AR36" s="25"/>
       <c r="AS36" s="25"/>
@@ -24081,7 +23880,7 @@
     <row r="37" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J37" s="25"/>
       <c r="O37" s="25"/>
-      <c r="S37" s="90"/>
+      <c r="S37" s="93"/>
       <c r="T37" s="25"/>
       <c r="U37" s="25"/>
       <c r="V37" s="25"/>
@@ -24090,7 +23889,7 @@
       <c r="Y37" s="25"/>
       <c r="Z37" s="25"/>
       <c r="AA37" s="25"/>
-      <c r="AD37" s="90"/>
+      <c r="AD37" s="93"/>
       <c r="AE37" s="25"/>
       <c r="AF37" s="25"/>
       <c r="AI37" s="25"/>
@@ -24099,7 +23898,7 @@
       <c r="AL37" s="25"/>
       <c r="AM37" s="25"/>
       <c r="AN37" s="25"/>
-      <c r="AO37" s="90"/>
+      <c r="AO37" s="93"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="28"/>
       <c r="AR37" s="28"/>
@@ -24109,17 +23908,17 @@
     <row r="38" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="25"/>
       <c r="O38" s="25"/>
-      <c r="AD38" s="90"/>
+      <c r="AD38" s="93"/>
       <c r="AE38" s="25"/>
       <c r="AF38" s="25"/>
-      <c r="AG38" s="103"/>
+      <c r="AG38" s="56"/>
       <c r="AI38" s="25"/>
       <c r="AJ38" s="25"/>
       <c r="AK38" s="25"/>
       <c r="AL38" s="25"/>
       <c r="AM38" s="25"/>
       <c r="AN38" s="25"/>
-      <c r="AO38" s="90"/>
+      <c r="AO38" s="93"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
       <c r="AR38" s="28"/>
@@ -24129,14 +23928,14 @@
     </row>
     <row r="39" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J39" s="25"/>
-      <c r="K39" s="90">
+      <c r="K39" s="93">
         <v>1</v>
       </c>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
       <c r="O39" s="25"/>
-      <c r="AD39" s="90"/>
+      <c r="AD39" s="93"/>
       <c r="AE39" s="25"/>
       <c r="AF39" s="25"/>
       <c r="AI39" s="25"/>
@@ -24145,7 +23944,7 @@
       <c r="AL39" s="25"/>
       <c r="AM39" s="25"/>
       <c r="AN39" s="25"/>
-      <c r="AO39" s="90"/>
+      <c r="AO39" s="93"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="28"/>
       <c r="AR39" s="25"/>
@@ -24169,22 +23968,22 @@
       <c r="BJ39" s="25"/>
       <c r="BK39" s="25"/>
       <c r="BL39" s="25"/>
-      <c r="BM39" s="90">
+      <c r="BM39" s="93">
         <v>1</v>
       </c>
-      <c r="BN39" s="90"/>
-      <c r="BO39" s="90"/>
-      <c r="BP39" s="90"/>
+      <c r="BN39" s="93"/>
+      <c r="BO39" s="93"/>
+      <c r="BP39" s="93"/>
       <c r="BQ39" s="25"/>
     </row>
     <row r="40" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40" s="25"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
       <c r="O40" s="25"/>
-      <c r="AD40" s="90"/>
+      <c r="AD40" s="93"/>
       <c r="AE40" s="25"/>
       <c r="AF40" s="25"/>
       <c r="AI40" s="25"/>
@@ -24193,54 +23992,54 @@
       <c r="AL40" s="25"/>
       <c r="AM40" s="25"/>
       <c r="AN40" s="25"/>
-      <c r="AO40" s="90"/>
-      <c r="AP40" s="102"/>
-      <c r="AQ40" s="102"/>
+      <c r="AO40" s="93"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
       <c r="AR40" s="28"/>
       <c r="BL40" s="25"/>
-      <c r="BM40" s="90"/>
-      <c r="BN40" s="90"/>
-      <c r="BO40" s="90"/>
-      <c r="BP40" s="90"/>
+      <c r="BM40" s="93"/>
+      <c r="BN40" s="93"/>
+      <c r="BO40" s="93"/>
+      <c r="BP40" s="93"/>
       <c r="BQ40" s="25"/>
     </row>
     <row r="41" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J41" s="25"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
       <c r="O41" s="25"/>
-      <c r="P41" s="102"/>
+      <c r="P41" s="55"/>
       <c r="Q41" s="13"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="102"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
       <c r="Z41" s="13"/>
       <c r="AB41" s="25"/>
       <c r="AC41" s="25"/>
       <c r="AD41" s="25"/>
       <c r="AE41" s="25"/>
       <c r="AF41" s="25"/>
-      <c r="AG41" s="92">
+      <c r="AG41" s="105">
         <v>2</v>
       </c>
-      <c r="AH41" s="92"/>
+      <c r="AH41" s="105"/>
       <c r="AI41" s="25"/>
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
       <c r="AL41" s="25"/>
       <c r="AM41" s="25"/>
       <c r="AN41" s="25"/>
-      <c r="AO41" s="90"/>
-      <c r="AP41" s="102"/>
+      <c r="AO41" s="93"/>
+      <c r="AP41" s="55"/>
       <c r="AQ41" s="13"/>
       <c r="AR41" s="28"/>
       <c r="BC41" s="12"/>
       <c r="BL41" s="25"/>
-      <c r="BM41" s="90"/>
-      <c r="BN41" s="90"/>
-      <c r="BO41" s="90"/>
-      <c r="BP41" s="90"/>
+      <c r="BM41" s="93"/>
+      <c r="BN41" s="93"/>
+      <c r="BO41" s="93"/>
+      <c r="BP41" s="93"/>
       <c r="BQ41" s="25"/>
     </row>
     <row r="42" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24295,7 +24094,7 @@
     </row>
     <row r="43" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O43" s="25"/>
-      <c r="U43" s="90">
+      <c r="U43" s="93">
         <v>2</v>
       </c>
       <c r="V43" s="25"/>
@@ -24327,10 +24126,10 @@
     </row>
     <row r="44" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O44" s="25"/>
-      <c r="P44" s="91">
+      <c r="P44" s="53">
         <v>3</v>
       </c>
-      <c r="U44" s="90"/>
+      <c r="U44" s="93"/>
       <c r="V44" s="25"/>
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
@@ -24339,7 +24138,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
       <c r="AC44" s="25"/>
-      <c r="AF44" s="105"/>
+      <c r="AF44" s="58"/>
       <c r="AN44" s="28"/>
       <c r="AO44" s="25"/>
       <c r="AP44" s="25"/>
@@ -24366,7 +24165,7 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
-      <c r="U45" s="90"/>
+      <c r="U45" s="93"/>
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
@@ -24398,7 +24197,7 @@
     </row>
     <row r="46" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O46" s="25"/>
-      <c r="U46" s="90"/>
+      <c r="U46" s="93"/>
       <c r="V46" s="25"/>
       <c r="W46" s="25"/>
       <c r="X46" s="25"/>
@@ -24428,7 +24227,7 @@
     <row r="47" spans="10:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O47" s="25"/>
       <c r="T47" s="45"/>
-      <c r="U47" s="90"/>
+      <c r="U47" s="93"/>
       <c r="V47" s="25"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
@@ -24495,15 +24294,15 @@
       <c r="BB48" s="25"/>
       <c r="BC48" s="25"/>
       <c r="BD48" s="25"/>
-      <c r="BE48" s="92">
+      <c r="BE48" s="105">
         <v>5</v>
       </c>
-      <c r="BF48" s="92"/>
-      <c r="BG48" s="92"/>
-      <c r="BH48" s="92"/>
-      <c r="BI48" s="92"/>
-      <c r="BJ48" s="92"/>
-      <c r="BK48" s="92"/>
+      <c r="BF48" s="105"/>
+      <c r="BG48" s="105"/>
+      <c r="BH48" s="105"/>
+      <c r="BI48" s="105"/>
+      <c r="BJ48" s="105"/>
+      <c r="BK48" s="105"/>
       <c r="BL48" s="25"/>
     </row>
     <row r="49" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24517,34 +24316,34 @@
       <c r="AB49" s="25"/>
       <c r="AC49" s="25"/>
       <c r="AF49" s="25"/>
-      <c r="AG49" s="90">
+      <c r="AG49" s="93">
         <v>2</v>
       </c>
-      <c r="AH49" s="90">
+      <c r="AH49" s="93">
         <v>2</v>
       </c>
-      <c r="AI49" s="90"/>
-      <c r="AJ49" s="90"/>
-      <c r="AK49" s="90"/>
-      <c r="AL49" s="90"/>
-      <c r="AM49" s="90"/>
-      <c r="AN49" s="90"/>
-      <c r="AO49" s="90"/>
-      <c r="AP49" s="90"/>
-      <c r="AQ49" s="90"/>
-      <c r="AR49" s="90"/>
-      <c r="AS49" s="90"/>
-      <c r="AT49" s="90"/>
-      <c r="AU49" s="90"/>
-      <c r="AV49" s="90"/>
-      <c r="AW49" s="90"/>
-      <c r="AX49" s="90"/>
-      <c r="AY49" s="90"/>
-      <c r="AZ49" s="90"/>
-      <c r="BA49" s="90"/>
-      <c r="BB49" s="90"/>
-      <c r="BC49" s="90"/>
-      <c r="BD49" s="90"/>
+      <c r="AI49" s="93"/>
+      <c r="AJ49" s="93"/>
+      <c r="AK49" s="93"/>
+      <c r="AL49" s="93"/>
+      <c r="AM49" s="93"/>
+      <c r="AN49" s="93"/>
+      <c r="AO49" s="93"/>
+      <c r="AP49" s="93"/>
+      <c r="AQ49" s="93"/>
+      <c r="AR49" s="93"/>
+      <c r="AS49" s="93"/>
+      <c r="AT49" s="93"/>
+      <c r="AU49" s="93"/>
+      <c r="AV49" s="93"/>
+      <c r="AW49" s="93"/>
+      <c r="AX49" s="93"/>
+      <c r="AY49" s="93"/>
+      <c r="AZ49" s="93"/>
+      <c r="BA49" s="93"/>
+      <c r="BB49" s="93"/>
+      <c r="BC49" s="93"/>
+      <c r="BD49" s="93"/>
       <c r="BL49" s="25"/>
     </row>
     <row r="50" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24558,7 +24357,7 @@
       <c r="AB50" s="25"/>
       <c r="AC50" s="25"/>
       <c r="AF50" s="25"/>
-      <c r="AG50" s="90"/>
+      <c r="AG50" s="93"/>
       <c r="BE50" s="25"/>
       <c r="BF50" s="25"/>
       <c r="BG50" s="25"/>
@@ -24571,7 +24370,7 @@
       <c r="V51" s="28"/>
       <c r="AC51" s="25"/>
       <c r="AF51" s="25"/>
-      <c r="AG51" s="90"/>
+      <c r="AG51" s="93"/>
       <c r="BL51" s="25"/>
     </row>
     <row r="52" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24579,7 +24378,7 @@
       <c r="V52" s="28"/>
       <c r="AC52" s="25"/>
       <c r="AF52" s="25"/>
-      <c r="AG52" s="90"/>
+      <c r="AG52" s="93"/>
       <c r="BL52" s="25"/>
     </row>
     <row r="53" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24588,41 +24387,47 @@
       <c r="V53" s="25"/>
       <c r="AC53" s="25"/>
       <c r="AF53" s="25"/>
-      <c r="AG53" s="90"/>
+      <c r="AG53" s="93"/>
       <c r="AN53" s="25"/>
       <c r="AO53" s="25"/>
       <c r="AP53" s="25"/>
+      <c r="BB53" s="93">
+        <v>5</v>
+      </c>
+      <c r="BC53" s="93"/>
       <c r="BJ53" s="25"/>
       <c r="BK53" s="25"/>
       <c r="BL53" s="25"/>
     </row>
     <row r="54" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O54" s="25"/>
-      <c r="S54" s="90">
+      <c r="S54" s="93">
         <v>3</v>
       </c>
-      <c r="T54" s="90"/>
+      <c r="T54" s="93"/>
       <c r="AC54" s="25"/>
       <c r="AF54" s="25"/>
-      <c r="AG54" s="90"/>
+      <c r="AG54" s="93"/>
+      <c r="BB54" s="93"/>
+      <c r="BC54" s="93"/>
       <c r="BL54" s="25"/>
     </row>
     <row r="55" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O55" s="25"/>
-      <c r="Q55" s="103"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="V55" s="103"/>
+      <c r="Q55" s="56"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="93"/>
+      <c r="V55" s="56"/>
       <c r="AC55" s="25"/>
       <c r="AF55" s="25"/>
-      <c r="AG55" s="90"/>
+      <c r="AG55" s="93"/>
       <c r="BL55" s="25"/>
     </row>
     <row r="56" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O56" s="25"/>
       <c r="X56" s="25"/>
       <c r="AF56" s="25"/>
-      <c r="AG56" s="90"/>
+      <c r="AG56" s="93"/>
       <c r="AI56" s="25"/>
       <c r="AJ56" s="25"/>
       <c r="AQ56" s="25"/>
@@ -24635,19 +24440,19 @@
     </row>
     <row r="57" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O57" s="25"/>
-      <c r="P57" s="106">
+      <c r="P57" s="107">
         <v>1</v>
       </c>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="107"/>
+      <c r="S57" s="107"/>
+      <c r="T57" s="107"/>
+      <c r="U57" s="107"/>
+      <c r="V57" s="107"/>
+      <c r="W57" s="107"/>
       <c r="X57" s="25"/>
       <c r="AF57" s="25"/>
-      <c r="AG57" s="90"/>
+      <c r="AG57" s="93"/>
       <c r="AY57" s="25"/>
       <c r="AZ57" s="25"/>
       <c r="BA57" s="25"/>
@@ -24655,18 +24460,18 @@
     </row>
     <row r="58" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O58" s="25"/>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="106"/>
-      <c r="T58" s="106"/>
-      <c r="U58" s="106"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="P58" s="107"/>
+      <c r="Q58" s="107"/>
+      <c r="R58" s="107"/>
+      <c r="S58" s="107"/>
+      <c r="T58" s="107"/>
+      <c r="U58" s="107"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
       <c r="X58" s="25"/>
       <c r="Z58" s="25"/>
       <c r="AA58" s="25"/>
-      <c r="AF58" s="93">
+      <c r="AF58" s="108">
         <v>4</v>
       </c>
       <c r="AL58" s="12"/>
@@ -24674,16 +24479,16 @@
     </row>
     <row r="59" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O59" s="25"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
-      <c r="V59" s="106"/>
-      <c r="W59" s="106"/>
+      <c r="P59" s="107"/>
+      <c r="Q59" s="107"/>
+      <c r="R59" s="107"/>
+      <c r="S59" s="107"/>
+      <c r="T59" s="107"/>
+      <c r="U59" s="107"/>
+      <c r="V59" s="107"/>
+      <c r="W59" s="107"/>
       <c r="X59" s="25"/>
-      <c r="AF59" s="93"/>
+      <c r="AF59" s="108"/>
       <c r="AK59" s="25"/>
       <c r="AL59" s="25"/>
       <c r="AM59" s="25"/>
@@ -24698,16 +24503,16 @@
     </row>
     <row r="60" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O60" s="25"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
-      <c r="V60" s="106"/>
-      <c r="W60" s="106"/>
+      <c r="P60" s="107"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="107"/>
+      <c r="S60" s="107"/>
+      <c r="T60" s="107"/>
+      <c r="U60" s="107"/>
+      <c r="V60" s="107"/>
+      <c r="W60" s="107"/>
       <c r="X60" s="25"/>
-      <c r="AF60" s="93"/>
+      <c r="AF60" s="108"/>
       <c r="BI60" s="25"/>
       <c r="BJ60" s="25"/>
       <c r="BK60" s="25"/>
@@ -24715,44 +24520,44 @@
     </row>
     <row r="61" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O61" s="25"/>
-      <c r="P61" s="106"/>
-      <c r="Q61" s="106"/>
-      <c r="R61" s="106"/>
-      <c r="S61" s="106"/>
-      <c r="T61" s="106"/>
-      <c r="U61" s="106"/>
-      <c r="V61" s="106"/>
-      <c r="W61" s="106"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="107"/>
+      <c r="T61" s="107"/>
+      <c r="U61" s="107"/>
+      <c r="V61" s="107"/>
+      <c r="W61" s="107"/>
       <c r="X61" s="25"/>
-      <c r="AF61" s="93"/>
-      <c r="AG61" s="90">
+      <c r="AF61" s="108"/>
+      <c r="AG61" s="93">
         <v>2</v>
       </c>
-      <c r="AH61" s="90"/>
-      <c r="AI61" s="90"/>
-      <c r="AJ61" s="90"/>
-      <c r="AK61" s="90"/>
-      <c r="AL61" s="90"/>
-      <c r="AM61" s="90"/>
-      <c r="AN61" s="90"/>
-      <c r="AO61" s="90"/>
-      <c r="AP61" s="90"/>
-      <c r="AQ61" s="90"/>
-      <c r="AR61" s="90"/>
-      <c r="AS61" s="90"/>
-      <c r="AT61" s="90"/>
-      <c r="AU61" s="90"/>
-      <c r="AV61" s="90"/>
-      <c r="AW61" s="90"/>
-      <c r="AX61" s="90"/>
+      <c r="AH61" s="93"/>
+      <c r="AI61" s="93"/>
+      <c r="AJ61" s="93"/>
+      <c r="AK61" s="93"/>
+      <c r="AL61" s="93"/>
+      <c r="AM61" s="93"/>
+      <c r="AN61" s="93"/>
+      <c r="AO61" s="93"/>
+      <c r="AP61" s="93"/>
+      <c r="AQ61" s="93"/>
+      <c r="AR61" s="93"/>
+      <c r="AS61" s="93"/>
+      <c r="AT61" s="93"/>
+      <c r="AU61" s="93"/>
+      <c r="AV61" s="93"/>
+      <c r="AW61" s="93"/>
+      <c r="AX61" s="93"/>
       <c r="BC61" s="25"/>
       <c r="BD61" s="25"/>
       <c r="BE61" s="25"/>
-      <c r="BF61" s="90">
+      <c r="BF61" s="93">
         <v>2</v>
       </c>
-      <c r="BG61" s="90"/>
-      <c r="BH61" s="90"/>
+      <c r="BG61" s="93"/>
+      <c r="BH61" s="93"/>
       <c r="BI61" s="25"/>
       <c r="BJ61" s="25"/>
       <c r="BK61" s="25"/>
@@ -24769,12 +24574,12 @@
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
       <c r="X62" s="25"/>
-      <c r="Y62" s="92">
+      <c r="Y62" s="105">
         <v>3</v>
       </c>
-      <c r="Z62" s="92"/>
-      <c r="AA62" s="92"/>
-      <c r="AB62" s="92"/>
+      <c r="Z62" s="105"/>
+      <c r="AA62" s="105"/>
+      <c r="AB62" s="105"/>
       <c r="AC62" s="25"/>
       <c r="AD62" s="25"/>
       <c r="AE62" s="25"/>
@@ -24814,84 +24619,84 @@
     </row>
     <row r="63" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X63" s="25"/>
-      <c r="Y63" s="102"/>
-      <c r="AB63" s="90">
+      <c r="Y63" s="55"/>
+      <c r="AB63" s="93">
         <v>2</v>
       </c>
       <c r="AC63" s="25"/>
       <c r="AX63" s="25"/>
-      <c r="BB63" s="102"/>
+      <c r="BB63" s="55"/>
       <c r="BC63" s="25"/>
     </row>
     <row r="64" spans="15:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X64" s="25"/>
-      <c r="Y64" s="102"/>
-      <c r="AB64" s="90"/>
+      <c r="Y64" s="55"/>
+      <c r="AB64" s="93"/>
       <c r="AC64" s="25"/>
       <c r="AX64" s="25"/>
-      <c r="BB64" s="102"/>
+      <c r="BB64" s="55"/>
       <c r="BC64" s="25"/>
     </row>
     <row r="65" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X65" s="25"/>
-      <c r="Y65" s="102"/>
-      <c r="AB65" s="90"/>
+      <c r="Y65" s="55"/>
+      <c r="AB65" s="93"/>
       <c r="AC65" s="25"/>
       <c r="AX65" s="25"/>
-      <c r="AY65" s="107"/>
-      <c r="BB65" s="102"/>
+      <c r="AY65" s="59"/>
+      <c r="BB65" s="55"/>
       <c r="BC65" s="25"/>
     </row>
     <row r="66" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X66" s="25"/>
-      <c r="Y66" s="102"/>
-      <c r="AB66" s="90"/>
+      <c r="Y66" s="55"/>
+      <c r="AB66" s="93"/>
       <c r="AC66" s="25"/>
       <c r="AX66" s="25"/>
-      <c r="AY66" s="90">
+      <c r="AY66" s="93">
         <v>2</v>
       </c>
-      <c r="BB66" s="102"/>
+      <c r="BB66" s="55"/>
       <c r="BC66" s="25"/>
     </row>
     <row r="67" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X67" s="25"/>
-      <c r="AB67" s="90"/>
+      <c r="AB67" s="93"/>
       <c r="AC67" s="25"/>
       <c r="AX67" s="25"/>
-      <c r="AY67" s="90"/>
+      <c r="AY67" s="93"/>
       <c r="BC67" s="25"/>
     </row>
     <row r="68" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X68" s="25"/>
-      <c r="Y68" s="107"/>
-      <c r="AB68" s="90"/>
+      <c r="Y68" s="59"/>
+      <c r="AB68" s="93"/>
       <c r="AC68" s="25"/>
       <c r="AX68" s="25"/>
-      <c r="AY68" s="90"/>
-      <c r="BB68" s="107"/>
+      <c r="AY68" s="93"/>
+      <c r="BB68" s="59"/>
       <c r="BC68" s="25"/>
     </row>
     <row r="69" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X69" s="25"/>
-      <c r="Y69" s="102"/>
-      <c r="AB69" s="90"/>
+      <c r="Y69" s="55"/>
+      <c r="AB69" s="93"/>
       <c r="AC69" s="25"/>
       <c r="AX69" s="25"/>
-      <c r="AY69" s="90"/>
-      <c r="BB69" s="102"/>
+      <c r="AY69" s="93"/>
+      <c r="BB69" s="55"/>
       <c r="BC69" s="25"/>
     </row>
     <row r="70" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X70" s="25"/>
-      <c r="Y70" s="102"/>
-      <c r="AB70" s="90"/>
+      <c r="Y70" s="55"/>
+      <c r="AB70" s="93"/>
       <c r="AC70" s="25"/>
-      <c r="AO70" s="102"/>
-      <c r="AP70" s="102"/>
+      <c r="AO70" s="55"/>
+      <c r="AP70" s="55"/>
       <c r="AX70" s="25"/>
-      <c r="AY70" s="90"/>
-      <c r="BB70" s="102"/>
+      <c r="AY70" s="93"/>
+      <c r="BB70" s="55"/>
       <c r="BC70" s="25"/>
     </row>
     <row r="71" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24901,56 +24706,56 @@
       <c r="P71" s="28"/>
       <c r="Q71" s="28"/>
       <c r="X71" s="25"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="91">
+      <c r="Y71" s="55"/>
+      <c r="Z71" s="53">
         <v>4</v>
       </c>
       <c r="AA71" s="45"/>
-      <c r="AB71" s="90"/>
+      <c r="AB71" s="93"/>
       <c r="AC71" s="25"/>
-      <c r="AO71" s="102"/>
-      <c r="AP71" s="102"/>
+      <c r="AO71" s="55"/>
+      <c r="AP71" s="55"/>
       <c r="AX71" s="25"/>
-      <c r="AY71" s="90"/>
-      <c r="AZ71" s="91">
+      <c r="AY71" s="93"/>
+      <c r="AZ71" s="53">
         <v>5</v>
       </c>
       <c r="BA71" s="45"/>
-      <c r="BB71" s="102"/>
+      <c r="BB71" s="55"/>
       <c r="BC71" s="25"/>
     </row>
     <row r="72" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M72" s="28"/>
       <c r="N72" s="28"/>
-      <c r="O72" s="102"/>
-      <c r="P72" s="102"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
       <c r="Q72" s="28"/>
       <c r="X72" s="25"/>
-      <c r="Y72" s="102"/>
+      <c r="Y72" s="55"/>
       <c r="Z72" s="25"/>
       <c r="AA72" s="25"/>
-      <c r="AB72" s="90"/>
+      <c r="AB72" s="93"/>
       <c r="AC72" s="25"/>
       <c r="AX72" s="25"/>
-      <c r="AY72" s="90"/>
+      <c r="AY72" s="93"/>
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
-      <c r="BB72" s="102"/>
+      <c r="BB72" s="55"/>
       <c r="BC72" s="25"/>
     </row>
     <row r="73" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
       <c r="Q73" s="28"/>
       <c r="X73" s="25"/>
-      <c r="Y73" s="102"/>
-      <c r="AB73" s="90"/>
+      <c r="Y73" s="55"/>
+      <c r="AB73" s="93"/>
       <c r="AC73" s="25"/>
       <c r="AX73" s="25"/>
-      <c r="AY73" s="90"/>
-      <c r="BB73" s="102"/>
+      <c r="AY73" s="93"/>
+      <c r="BB73" s="55"/>
       <c r="BC73" s="25"/>
     </row>
     <row r="74" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24960,54 +24765,54 @@
       <c r="P74" s="28"/>
       <c r="Q74" s="28"/>
       <c r="X74" s="25"/>
-      <c r="Y74" s="102"/>
-      <c r="AB74" s="90"/>
+      <c r="Y74" s="55"/>
+      <c r="AB74" s="93"/>
       <c r="AC74" s="25"/>
       <c r="AX74" s="25"/>
-      <c r="AY74" s="90"/>
-      <c r="BB74" s="102"/>
+      <c r="AY74" s="93"/>
+      <c r="BB74" s="55"/>
       <c r="BC74" s="25"/>
     </row>
     <row r="75" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M75" s="28"/>
       <c r="N75" s="28"/>
-      <c r="O75" s="102"/>
-      <c r="P75" s="102"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
       <c r="Q75" s="28"/>
       <c r="X75" s="25"/>
-      <c r="Y75" s="90">
+      <c r="Y75" s="93">
         <v>1</v>
       </c>
-      <c r="Z75" s="90"/>
-      <c r="AA75" s="90"/>
-      <c r="AB75" s="90"/>
+      <c r="Z75" s="93"/>
+      <c r="AA75" s="93"/>
+      <c r="AB75" s="93"/>
       <c r="AC75" s="25"/>
       <c r="AX75" s="25"/>
-      <c r="AY75" s="90">
+      <c r="AY75" s="93">
         <v>1</v>
       </c>
-      <c r="AZ75" s="90"/>
-      <c r="BA75" s="90"/>
-      <c r="BB75" s="90"/>
+      <c r="AZ75" s="93"/>
+      <c r="BA75" s="93"/>
+      <c r="BB75" s="93"/>
       <c r="BC75" s="25"/>
     </row>
     <row r="76" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M76" s="28"/>
       <c r="N76" s="28"/>
-      <c r="O76" s="102"/>
-      <c r="P76" s="102"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
       <c r="Q76" s="28"/>
       <c r="X76" s="25"/>
-      <c r="Y76" s="90"/>
-      <c r="Z76" s="90"/>
-      <c r="AA76" s="90"/>
-      <c r="AB76" s="90"/>
+      <c r="Y76" s="93"/>
+      <c r="Z76" s="93"/>
+      <c r="AA76" s="93"/>
+      <c r="AB76" s="93"/>
       <c r="AC76" s="25"/>
       <c r="AX76" s="25"/>
-      <c r="AY76" s="90"/>
-      <c r="AZ76" s="90"/>
-      <c r="BA76" s="90"/>
-      <c r="BB76" s="90"/>
+      <c r="AY76" s="93"/>
+      <c r="AZ76" s="93"/>
+      <c r="BA76" s="93"/>
+      <c r="BB76" s="93"/>
       <c r="BC76" s="25"/>
     </row>
     <row r="77" spans="13:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -25030,7 +24835,7 @@
       <c r="BC77" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
     <mergeCell ref="BE48:BK48"/>
     <mergeCell ref="AY66:AY74"/>
     <mergeCell ref="BF61:BH61"/>
@@ -25041,16 +24846,12 @@
     <mergeCell ref="Y62:AB62"/>
     <mergeCell ref="AF58:AF61"/>
     <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="P57:W61"/>
-    <mergeCell ref="U43:U47"/>
-    <mergeCell ref="S54:T55"/>
     <mergeCell ref="AG61:AX61"/>
     <mergeCell ref="AO18:AO41"/>
-    <mergeCell ref="BG20:BH21"/>
-    <mergeCell ref="AR20:AS21"/>
-    <mergeCell ref="AR29:AS30"/>
-    <mergeCell ref="BG29:BH30"/>
-    <mergeCell ref="AP18:BG18"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="Z24:AB26"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="Y75:AB76"/>
     <mergeCell ref="AY75:BB76"/>
     <mergeCell ref="K39:N41"/>
@@ -25059,13 +24860,14 @@
     <mergeCell ref="BO28:BP28"/>
     <mergeCell ref="S29:S37"/>
     <mergeCell ref="X29:X36"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="Z24:AB26"/>
-    <mergeCell ref="AY24:BA26"/>
-    <mergeCell ref="W18:X19"/>
     <mergeCell ref="O28:O32"/>
     <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="BB53:BC54"/>
+    <mergeCell ref="AR31:AS32"/>
+    <mergeCell ref="BG31:BH32"/>
+    <mergeCell ref="P57:W61"/>
+    <mergeCell ref="U43:U47"/>
+    <mergeCell ref="S54:T55"/>
     <mergeCell ref="AH2:AU6"/>
     <mergeCell ref="AW2:AX6"/>
     <mergeCell ref="AY2:BY6"/>
@@ -25075,6 +24877,10 @@
     <mergeCell ref="AO15:AP16"/>
     <mergeCell ref="BK18:BK27"/>
     <mergeCell ref="BH17:BK17"/>
+    <mergeCell ref="BG20:BH21"/>
+    <mergeCell ref="AR20:AS21"/>
+    <mergeCell ref="AP18:BG18"/>
+    <mergeCell ref="AY24:BA26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
